--- a/Data/Dataset/NTSS/Random Search/randrun4.xlsx
+++ b/Data/Dataset/NTSS/Random Search/randrun4.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad\Documents\rabbitrun\meetings\Paper 2 - SAGACIOUS\experiments\random search\random search with threshold = 0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA41630-192B-46F7-ACA4-11EC8F21AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C3923-716D-480D-81D4-B9A11D92DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86280" yWindow="7320" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7215" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$131</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$168</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$131</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$131</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$101</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$101</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$168</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>TIN 0 Req-BW</t>
   </si>
@@ -125,6 +124,30 @@
   <si>
     <t>Label</t>
   </si>
+  <si>
+    <t>TIN 0 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 1 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 2 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 3 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 4 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 5 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 6 Thresh</t>
+  </si>
+  <si>
+    <t>TIN 7 Thresh</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,17 +227,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,7 +274,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -248,7 +285,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{175F776F-7C1F-405D-834A-DA0687354572}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Label</cx:v>
             </cx:txData>
           </cx:tx>
@@ -277,7 +314,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -311,7 +348,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -345,7 +382,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -379,7 +416,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -413,7 +450,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4091,7 +4128,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2628900" y="14587537"/>
+              <a:off x="2628900" y="14584362"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4169,7 +4206,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2628900" y="22588537"/>
+              <a:off x="2628900" y="22585362"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4466,10 +4503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4477,7 +4514,7 @@
     <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -4556,8 +4593,32 @@
       <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -4637,8 +4698,32 @@
       <c r="Z2">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA2">
+        <v>400</v>
+      </c>
+      <c r="AB2">
+        <v>350</v>
+      </c>
+      <c r="AC2">
+        <v>306</v>
+      </c>
+      <c r="AD2">
+        <v>267</v>
+      </c>
+      <c r="AE2">
+        <v>234</v>
+      </c>
+      <c r="AF2">
+        <v>205</v>
+      </c>
+      <c r="AG2">
+        <v>179</v>
+      </c>
+      <c r="AH2">
+        <v>157</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1.5</v>
       </c>
@@ -4718,8 +4803,32 @@
       <c r="Z3">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA3">
+        <v>400</v>
+      </c>
+      <c r="AB3">
+        <v>350</v>
+      </c>
+      <c r="AC3">
+        <v>306</v>
+      </c>
+      <c r="AD3">
+        <v>267</v>
+      </c>
+      <c r="AE3">
+        <v>234</v>
+      </c>
+      <c r="AF3">
+        <v>205</v>
+      </c>
+      <c r="AG3">
+        <v>179</v>
+      </c>
+      <c r="AH3">
+        <v>157</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -4799,8 +4908,32 @@
       <c r="Z4">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA4">
+        <v>400</v>
+      </c>
+      <c r="AB4">
+        <v>350</v>
+      </c>
+      <c r="AC4">
+        <v>306</v>
+      </c>
+      <c r="AD4">
+        <v>267</v>
+      </c>
+      <c r="AE4">
+        <v>234</v>
+      </c>
+      <c r="AF4">
+        <v>205</v>
+      </c>
+      <c r="AG4">
+        <v>179</v>
+      </c>
+      <c r="AH4">
+        <v>157</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -4880,8 +5013,32 @@
       <c r="Z5">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA5">
+        <v>400</v>
+      </c>
+      <c r="AB5">
+        <v>350</v>
+      </c>
+      <c r="AC5">
+        <v>306</v>
+      </c>
+      <c r="AD5">
+        <v>267</v>
+      </c>
+      <c r="AE5">
+        <v>234</v>
+      </c>
+      <c r="AF5">
+        <v>205</v>
+      </c>
+      <c r="AG5">
+        <v>179</v>
+      </c>
+      <c r="AH5">
+        <v>157</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>1.7</v>
       </c>
@@ -4961,8 +5118,32 @@
       <c r="Z6">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA6">
+        <v>400</v>
+      </c>
+      <c r="AB6">
+        <v>350</v>
+      </c>
+      <c r="AC6">
+        <v>306</v>
+      </c>
+      <c r="AD6">
+        <v>267</v>
+      </c>
+      <c r="AE6">
+        <v>234</v>
+      </c>
+      <c r="AF6">
+        <v>205</v>
+      </c>
+      <c r="AG6">
+        <v>179</v>
+      </c>
+      <c r="AH6">
+        <v>157</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>4.5</v>
       </c>
@@ -5042,8 +5223,32 @@
       <c r="Z7">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA7">
+        <v>400</v>
+      </c>
+      <c r="AB7">
+        <v>350</v>
+      </c>
+      <c r="AC7">
+        <v>306</v>
+      </c>
+      <c r="AD7">
+        <v>267</v>
+      </c>
+      <c r="AE7">
+        <v>234</v>
+      </c>
+      <c r="AF7">
+        <v>205</v>
+      </c>
+      <c r="AG7">
+        <v>179</v>
+      </c>
+      <c r="AH7">
+        <v>157</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -5123,8 +5328,32 @@
       <c r="Z8">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA8">
+        <v>400</v>
+      </c>
+      <c r="AB8">
+        <v>350</v>
+      </c>
+      <c r="AC8">
+        <v>306</v>
+      </c>
+      <c r="AD8">
+        <v>267</v>
+      </c>
+      <c r="AE8">
+        <v>234</v>
+      </c>
+      <c r="AF8">
+        <v>205</v>
+      </c>
+      <c r="AG8">
+        <v>179</v>
+      </c>
+      <c r="AH8">
+        <v>157</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>0.5</v>
       </c>
@@ -5204,8 +5433,32 @@
       <c r="Z9">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA9">
+        <v>400</v>
+      </c>
+      <c r="AB9">
+        <v>350</v>
+      </c>
+      <c r="AC9">
+        <v>306</v>
+      </c>
+      <c r="AD9">
+        <v>267</v>
+      </c>
+      <c r="AE9">
+        <v>234</v>
+      </c>
+      <c r="AF9">
+        <v>205</v>
+      </c>
+      <c r="AG9">
+        <v>179</v>
+      </c>
+      <c r="AH9">
+        <v>157</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>0.5</v>
       </c>
@@ -5285,8 +5538,32 @@
       <c r="Z10">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA10">
+        <v>400</v>
+      </c>
+      <c r="AB10">
+        <v>350</v>
+      </c>
+      <c r="AC10">
+        <v>306</v>
+      </c>
+      <c r="AD10">
+        <v>267</v>
+      </c>
+      <c r="AE10">
+        <v>234</v>
+      </c>
+      <c r="AF10">
+        <v>205</v>
+      </c>
+      <c r="AG10">
+        <v>179</v>
+      </c>
+      <c r="AH10">
+        <v>157</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>5</v>
       </c>
@@ -5366,8 +5643,32 @@
       <c r="Z11">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA11">
+        <v>400</v>
+      </c>
+      <c r="AB11">
+        <v>350</v>
+      </c>
+      <c r="AC11">
+        <v>306</v>
+      </c>
+      <c r="AD11">
+        <v>267</v>
+      </c>
+      <c r="AE11">
+        <v>234</v>
+      </c>
+      <c r="AF11">
+        <v>205</v>
+      </c>
+      <c r="AG11">
+        <v>179</v>
+      </c>
+      <c r="AH11">
+        <v>157</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -5447,8 +5748,32 @@
       <c r="Z12">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA12">
+        <v>400</v>
+      </c>
+      <c r="AB12">
+        <v>350</v>
+      </c>
+      <c r="AC12">
+        <v>306</v>
+      </c>
+      <c r="AD12">
+        <v>267</v>
+      </c>
+      <c r="AE12">
+        <v>234</v>
+      </c>
+      <c r="AF12">
+        <v>205</v>
+      </c>
+      <c r="AG12">
+        <v>179</v>
+      </c>
+      <c r="AH12">
+        <v>157</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>1.5</v>
       </c>
@@ -5528,8 +5853,32 @@
       <c r="Z13">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA13">
+        <v>400</v>
+      </c>
+      <c r="AB13">
+        <v>350</v>
+      </c>
+      <c r="AC13">
+        <v>306</v>
+      </c>
+      <c r="AD13">
+        <v>267</v>
+      </c>
+      <c r="AE13">
+        <v>234</v>
+      </c>
+      <c r="AF13">
+        <v>205</v>
+      </c>
+      <c r="AG13">
+        <v>179</v>
+      </c>
+      <c r="AH13">
+        <v>157</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>1.5</v>
       </c>
@@ -5609,8 +5958,32 @@
       <c r="Z14">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA14">
+        <v>400</v>
+      </c>
+      <c r="AB14">
+        <v>350</v>
+      </c>
+      <c r="AC14">
+        <v>306</v>
+      </c>
+      <c r="AD14">
+        <v>267</v>
+      </c>
+      <c r="AE14">
+        <v>234</v>
+      </c>
+      <c r="AF14">
+        <v>205</v>
+      </c>
+      <c r="AG14">
+        <v>179</v>
+      </c>
+      <c r="AH14">
+        <v>157</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -5690,8 +6063,32 @@
       <c r="Z15">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA15">
+        <v>400</v>
+      </c>
+      <c r="AB15">
+        <v>350</v>
+      </c>
+      <c r="AC15">
+        <v>306</v>
+      </c>
+      <c r="AD15">
+        <v>267</v>
+      </c>
+      <c r="AE15">
+        <v>234</v>
+      </c>
+      <c r="AF15">
+        <v>205</v>
+      </c>
+      <c r="AG15">
+        <v>179</v>
+      </c>
+      <c r="AH15">
+        <v>157</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -5771,8 +6168,32 @@
       <c r="Z16">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA16">
+        <v>400</v>
+      </c>
+      <c r="AB16">
+        <v>350</v>
+      </c>
+      <c r="AC16">
+        <v>306</v>
+      </c>
+      <c r="AD16">
+        <v>267</v>
+      </c>
+      <c r="AE16">
+        <v>234</v>
+      </c>
+      <c r="AF16">
+        <v>205</v>
+      </c>
+      <c r="AG16">
+        <v>179</v>
+      </c>
+      <c r="AH16">
+        <v>157</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>3.6</v>
       </c>
@@ -5852,8 +6273,32 @@
       <c r="Z17">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA17">
+        <v>400</v>
+      </c>
+      <c r="AB17">
+        <v>350</v>
+      </c>
+      <c r="AC17">
+        <v>306</v>
+      </c>
+      <c r="AD17">
+        <v>267</v>
+      </c>
+      <c r="AE17">
+        <v>234</v>
+      </c>
+      <c r="AF17">
+        <v>205</v>
+      </c>
+      <c r="AG17">
+        <v>179</v>
+      </c>
+      <c r="AH17">
+        <v>157</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>2.8</v>
       </c>
@@ -5933,8 +6378,32 @@
       <c r="Z18">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA18">
+        <v>400</v>
+      </c>
+      <c r="AB18">
+        <v>350</v>
+      </c>
+      <c r="AC18">
+        <v>306</v>
+      </c>
+      <c r="AD18">
+        <v>267</v>
+      </c>
+      <c r="AE18">
+        <v>234</v>
+      </c>
+      <c r="AF18">
+        <v>205</v>
+      </c>
+      <c r="AG18">
+        <v>179</v>
+      </c>
+      <c r="AH18">
+        <v>157</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -6014,8 +6483,32 @@
       <c r="Z19">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA19">
+        <v>400</v>
+      </c>
+      <c r="AB19">
+        <v>350</v>
+      </c>
+      <c r="AC19">
+        <v>306</v>
+      </c>
+      <c r="AD19">
+        <v>267</v>
+      </c>
+      <c r="AE19">
+        <v>234</v>
+      </c>
+      <c r="AF19">
+        <v>205</v>
+      </c>
+      <c r="AG19">
+        <v>179</v>
+      </c>
+      <c r="AH19">
+        <v>157</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -6095,8 +6588,32 @@
       <c r="Z20">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA20">
+        <v>400</v>
+      </c>
+      <c r="AB20">
+        <v>350</v>
+      </c>
+      <c r="AC20">
+        <v>306</v>
+      </c>
+      <c r="AD20">
+        <v>267</v>
+      </c>
+      <c r="AE20">
+        <v>234</v>
+      </c>
+      <c r="AF20">
+        <v>205</v>
+      </c>
+      <c r="AG20">
+        <v>179</v>
+      </c>
+      <c r="AH20">
+        <v>157</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>1.5</v>
       </c>
@@ -6176,8 +6693,32 @@
       <c r="Z21">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA21">
+        <v>400</v>
+      </c>
+      <c r="AB21">
+        <v>350</v>
+      </c>
+      <c r="AC21">
+        <v>306</v>
+      </c>
+      <c r="AD21">
+        <v>267</v>
+      </c>
+      <c r="AE21">
+        <v>234</v>
+      </c>
+      <c r="AF21">
+        <v>205</v>
+      </c>
+      <c r="AG21">
+        <v>179</v>
+      </c>
+      <c r="AH21">
+        <v>157</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>1.5</v>
       </c>
@@ -6257,8 +6798,32 @@
       <c r="Z22">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA22">
+        <v>400</v>
+      </c>
+      <c r="AB22">
+        <v>350</v>
+      </c>
+      <c r="AC22">
+        <v>306</v>
+      </c>
+      <c r="AD22">
+        <v>267</v>
+      </c>
+      <c r="AE22">
+        <v>234</v>
+      </c>
+      <c r="AF22">
+        <v>205</v>
+      </c>
+      <c r="AG22">
+        <v>179</v>
+      </c>
+      <c r="AH22">
+        <v>157</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>1.5</v>
       </c>
@@ -6338,8 +6903,32 @@
       <c r="Z23">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA23">
+        <v>400</v>
+      </c>
+      <c r="AB23">
+        <v>350</v>
+      </c>
+      <c r="AC23">
+        <v>306</v>
+      </c>
+      <c r="AD23">
+        <v>267</v>
+      </c>
+      <c r="AE23">
+        <v>234</v>
+      </c>
+      <c r="AF23">
+        <v>205</v>
+      </c>
+      <c r="AG23">
+        <v>179</v>
+      </c>
+      <c r="AH23">
+        <v>157</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>0.5</v>
       </c>
@@ -6419,8 +7008,32 @@
       <c r="Z24">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA24">
+        <v>400</v>
+      </c>
+      <c r="AB24">
+        <v>350</v>
+      </c>
+      <c r="AC24">
+        <v>306</v>
+      </c>
+      <c r="AD24">
+        <v>267</v>
+      </c>
+      <c r="AE24">
+        <v>234</v>
+      </c>
+      <c r="AF24">
+        <v>205</v>
+      </c>
+      <c r="AG24">
+        <v>179</v>
+      </c>
+      <c r="AH24">
+        <v>157</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -6500,8 +7113,32 @@
       <c r="Z25">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA25">
+        <v>400</v>
+      </c>
+      <c r="AB25">
+        <v>350</v>
+      </c>
+      <c r="AC25">
+        <v>306</v>
+      </c>
+      <c r="AD25">
+        <v>267</v>
+      </c>
+      <c r="AE25">
+        <v>234</v>
+      </c>
+      <c r="AF25">
+        <v>205</v>
+      </c>
+      <c r="AG25">
+        <v>179</v>
+      </c>
+      <c r="AH25">
+        <v>157</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>4.5</v>
       </c>
@@ -6581,8 +7218,32 @@
       <c r="Z26">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA26">
+        <v>400</v>
+      </c>
+      <c r="AB26">
+        <v>350</v>
+      </c>
+      <c r="AC26">
+        <v>306</v>
+      </c>
+      <c r="AD26">
+        <v>267</v>
+      </c>
+      <c r="AE26">
+        <v>234</v>
+      </c>
+      <c r="AF26">
+        <v>205</v>
+      </c>
+      <c r="AG26">
+        <v>179</v>
+      </c>
+      <c r="AH26">
+        <v>157</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>1.8</v>
       </c>
@@ -6662,8 +7323,32 @@
       <c r="Z27">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA27">
+        <v>400</v>
+      </c>
+      <c r="AB27">
+        <v>350</v>
+      </c>
+      <c r="AC27">
+        <v>306</v>
+      </c>
+      <c r="AD27">
+        <v>267</v>
+      </c>
+      <c r="AE27">
+        <v>234</v>
+      </c>
+      <c r="AF27">
+        <v>205</v>
+      </c>
+      <c r="AG27">
+        <v>179</v>
+      </c>
+      <c r="AH27">
+        <v>157</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>2.5</v>
       </c>
@@ -6743,8 +7428,32 @@
       <c r="Z28">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA28">
+        <v>400</v>
+      </c>
+      <c r="AB28">
+        <v>350</v>
+      </c>
+      <c r="AC28">
+        <v>306</v>
+      </c>
+      <c r="AD28">
+        <v>267</v>
+      </c>
+      <c r="AE28">
+        <v>234</v>
+      </c>
+      <c r="AF28">
+        <v>205</v>
+      </c>
+      <c r="AG28">
+        <v>179</v>
+      </c>
+      <c r="AH28">
+        <v>157</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -6824,8 +7533,32 @@
       <c r="Z29">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA29">
+        <v>400</v>
+      </c>
+      <c r="AB29">
+        <v>350</v>
+      </c>
+      <c r="AC29">
+        <v>306</v>
+      </c>
+      <c r="AD29">
+        <v>267</v>
+      </c>
+      <c r="AE29">
+        <v>234</v>
+      </c>
+      <c r="AF29">
+        <v>205</v>
+      </c>
+      <c r="AG29">
+        <v>179</v>
+      </c>
+      <c r="AH29">
+        <v>157</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>0.8</v>
       </c>
@@ -6905,8 +7638,32 @@
       <c r="Z30">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA30">
+        <v>400</v>
+      </c>
+      <c r="AB30">
+        <v>350</v>
+      </c>
+      <c r="AC30">
+        <v>306</v>
+      </c>
+      <c r="AD30">
+        <v>267</v>
+      </c>
+      <c r="AE30">
+        <v>234</v>
+      </c>
+      <c r="AF30">
+        <v>205</v>
+      </c>
+      <c r="AG30">
+        <v>179</v>
+      </c>
+      <c r="AH30">
+        <v>157</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>2.7</v>
       </c>
@@ -6986,8 +7743,32 @@
       <c r="Z31">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA31">
+        <v>400</v>
+      </c>
+      <c r="AB31">
+        <v>350</v>
+      </c>
+      <c r="AC31">
+        <v>306</v>
+      </c>
+      <c r="AD31">
+        <v>267</v>
+      </c>
+      <c r="AE31">
+        <v>234</v>
+      </c>
+      <c r="AF31">
+        <v>205</v>
+      </c>
+      <c r="AG31">
+        <v>179</v>
+      </c>
+      <c r="AH31">
+        <v>157</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>1.8</v>
       </c>
@@ -7067,8 +7848,32 @@
       <c r="Z32">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA32">
+        <v>400</v>
+      </c>
+      <c r="AB32">
+        <v>350</v>
+      </c>
+      <c r="AC32">
+        <v>306</v>
+      </c>
+      <c r="AD32">
+        <v>267</v>
+      </c>
+      <c r="AE32">
+        <v>234</v>
+      </c>
+      <c r="AF32">
+        <v>205</v>
+      </c>
+      <c r="AG32">
+        <v>179</v>
+      </c>
+      <c r="AH32">
+        <v>157</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>1.5</v>
       </c>
@@ -7148,8 +7953,32 @@
       <c r="Z33">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA33">
+        <v>400</v>
+      </c>
+      <c r="AB33">
+        <v>350</v>
+      </c>
+      <c r="AC33">
+        <v>306</v>
+      </c>
+      <c r="AD33">
+        <v>267</v>
+      </c>
+      <c r="AE33">
+        <v>234</v>
+      </c>
+      <c r="AF33">
+        <v>205</v>
+      </c>
+      <c r="AG33">
+        <v>179</v>
+      </c>
+      <c r="AH33">
+        <v>157</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>0.8</v>
       </c>
@@ -7229,8 +8058,32 @@
       <c r="Z34">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA34">
+        <v>400</v>
+      </c>
+      <c r="AB34">
+        <v>350</v>
+      </c>
+      <c r="AC34">
+        <v>306</v>
+      </c>
+      <c r="AD34">
+        <v>267</v>
+      </c>
+      <c r="AE34">
+        <v>234</v>
+      </c>
+      <c r="AF34">
+        <v>205</v>
+      </c>
+      <c r="AG34">
+        <v>179</v>
+      </c>
+      <c r="AH34">
+        <v>157</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>0.5</v>
       </c>
@@ -7310,8 +8163,32 @@
       <c r="Z35">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA35">
+        <v>400</v>
+      </c>
+      <c r="AB35">
+        <v>350</v>
+      </c>
+      <c r="AC35">
+        <v>306</v>
+      </c>
+      <c r="AD35">
+        <v>267</v>
+      </c>
+      <c r="AE35">
+        <v>234</v>
+      </c>
+      <c r="AF35">
+        <v>205</v>
+      </c>
+      <c r="AG35">
+        <v>179</v>
+      </c>
+      <c r="AH35">
+        <v>157</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>2.6</v>
       </c>
@@ -7391,8 +8268,32 @@
       <c r="Z36">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA36">
+        <v>400</v>
+      </c>
+      <c r="AB36">
+        <v>350</v>
+      </c>
+      <c r="AC36">
+        <v>306</v>
+      </c>
+      <c r="AD36">
+        <v>267</v>
+      </c>
+      <c r="AE36">
+        <v>234</v>
+      </c>
+      <c r="AF36">
+        <v>205</v>
+      </c>
+      <c r="AG36">
+        <v>179</v>
+      </c>
+      <c r="AH36">
+        <v>157</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -7472,8 +8373,32 @@
       <c r="Z37">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA37">
+        <v>400</v>
+      </c>
+      <c r="AB37">
+        <v>350</v>
+      </c>
+      <c r="AC37">
+        <v>306</v>
+      </c>
+      <c r="AD37">
+        <v>267</v>
+      </c>
+      <c r="AE37">
+        <v>234</v>
+      </c>
+      <c r="AF37">
+        <v>205</v>
+      </c>
+      <c r="AG37">
+        <v>179</v>
+      </c>
+      <c r="AH37">
+        <v>157</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>1.8</v>
       </c>
@@ -7553,8 +8478,32 @@
       <c r="Z38">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA38">
+        <v>400</v>
+      </c>
+      <c r="AB38">
+        <v>350</v>
+      </c>
+      <c r="AC38">
+        <v>306</v>
+      </c>
+      <c r="AD38">
+        <v>267</v>
+      </c>
+      <c r="AE38">
+        <v>234</v>
+      </c>
+      <c r="AF38">
+        <v>205</v>
+      </c>
+      <c r="AG38">
+        <v>179</v>
+      </c>
+      <c r="AH38">
+        <v>157</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>1.5</v>
       </c>
@@ -7634,8 +8583,32 @@
       <c r="Z39">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA39">
+        <v>400</v>
+      </c>
+      <c r="AB39">
+        <v>350</v>
+      </c>
+      <c r="AC39">
+        <v>306</v>
+      </c>
+      <c r="AD39">
+        <v>267</v>
+      </c>
+      <c r="AE39">
+        <v>234</v>
+      </c>
+      <c r="AF39">
+        <v>205</v>
+      </c>
+      <c r="AG39">
+        <v>179</v>
+      </c>
+      <c r="AH39">
+        <v>157</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>0.5</v>
       </c>
@@ -7715,8 +8688,32 @@
       <c r="Z40">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA40">
+        <v>400</v>
+      </c>
+      <c r="AB40">
+        <v>350</v>
+      </c>
+      <c r="AC40">
+        <v>306</v>
+      </c>
+      <c r="AD40">
+        <v>267</v>
+      </c>
+      <c r="AE40">
+        <v>234</v>
+      </c>
+      <c r="AF40">
+        <v>205</v>
+      </c>
+      <c r="AG40">
+        <v>179</v>
+      </c>
+      <c r="AH40">
+        <v>157</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>0.5</v>
       </c>
@@ -7796,8 +8793,32 @@
       <c r="Z41">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA41">
+        <v>400</v>
+      </c>
+      <c r="AB41">
+        <v>350</v>
+      </c>
+      <c r="AC41">
+        <v>306</v>
+      </c>
+      <c r="AD41">
+        <v>267</v>
+      </c>
+      <c r="AE41">
+        <v>234</v>
+      </c>
+      <c r="AF41">
+        <v>205</v>
+      </c>
+      <c r="AG41">
+        <v>179</v>
+      </c>
+      <c r="AH41">
+        <v>157</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>1.5</v>
       </c>
@@ -7877,8 +8898,32 @@
       <c r="Z42">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA42">
+        <v>400</v>
+      </c>
+      <c r="AB42">
+        <v>350</v>
+      </c>
+      <c r="AC42">
+        <v>306</v>
+      </c>
+      <c r="AD42">
+        <v>267</v>
+      </c>
+      <c r="AE42">
+        <v>234</v>
+      </c>
+      <c r="AF42">
+        <v>205</v>
+      </c>
+      <c r="AG42">
+        <v>179</v>
+      </c>
+      <c r="AH42">
+        <v>157</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>0.8</v>
       </c>
@@ -7958,8 +9003,32 @@
       <c r="Z43">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA43">
+        <v>400</v>
+      </c>
+      <c r="AB43">
+        <v>350</v>
+      </c>
+      <c r="AC43">
+        <v>306</v>
+      </c>
+      <c r="AD43">
+        <v>267</v>
+      </c>
+      <c r="AE43">
+        <v>234</v>
+      </c>
+      <c r="AF43">
+        <v>205</v>
+      </c>
+      <c r="AG43">
+        <v>179</v>
+      </c>
+      <c r="AH43">
+        <v>157</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>2.7</v>
       </c>
@@ -8039,8 +9108,32 @@
       <c r="Z44">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA44">
+        <v>400</v>
+      </c>
+      <c r="AB44">
+        <v>350</v>
+      </c>
+      <c r="AC44">
+        <v>306</v>
+      </c>
+      <c r="AD44">
+        <v>267</v>
+      </c>
+      <c r="AE44">
+        <v>234</v>
+      </c>
+      <c r="AF44">
+        <v>205</v>
+      </c>
+      <c r="AG44">
+        <v>179</v>
+      </c>
+      <c r="AH44">
+        <v>157</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>3.6</v>
       </c>
@@ -8120,8 +9213,32 @@
       <c r="Z45">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA45">
+        <v>400</v>
+      </c>
+      <c r="AB45">
+        <v>350</v>
+      </c>
+      <c r="AC45">
+        <v>306</v>
+      </c>
+      <c r="AD45">
+        <v>267</v>
+      </c>
+      <c r="AE45">
+        <v>234</v>
+      </c>
+      <c r="AF45">
+        <v>205</v>
+      </c>
+      <c r="AG45">
+        <v>179</v>
+      </c>
+      <c r="AH45">
+        <v>157</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>1.5</v>
       </c>
@@ -8201,8 +9318,32 @@
       <c r="Z46">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA46">
+        <v>400</v>
+      </c>
+      <c r="AB46">
+        <v>350</v>
+      </c>
+      <c r="AC46">
+        <v>306</v>
+      </c>
+      <c r="AD46">
+        <v>267</v>
+      </c>
+      <c r="AE46">
+        <v>234</v>
+      </c>
+      <c r="AF46">
+        <v>205</v>
+      </c>
+      <c r="AG46">
+        <v>179</v>
+      </c>
+      <c r="AH46">
+        <v>157</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>0.5</v>
       </c>
@@ -8282,8 +9423,32 @@
       <c r="Z47">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA47">
+        <v>400</v>
+      </c>
+      <c r="AB47">
+        <v>350</v>
+      </c>
+      <c r="AC47">
+        <v>306</v>
+      </c>
+      <c r="AD47">
+        <v>267</v>
+      </c>
+      <c r="AE47">
+        <v>234</v>
+      </c>
+      <c r="AF47">
+        <v>205</v>
+      </c>
+      <c r="AG47">
+        <v>179</v>
+      </c>
+      <c r="AH47">
+        <v>157</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>0.7</v>
       </c>
@@ -8363,8 +9528,32 @@
       <c r="Z48">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA48">
+        <v>400</v>
+      </c>
+      <c r="AB48">
+        <v>350</v>
+      </c>
+      <c r="AC48">
+        <v>306</v>
+      </c>
+      <c r="AD48">
+        <v>267</v>
+      </c>
+      <c r="AE48">
+        <v>234</v>
+      </c>
+      <c r="AF48">
+        <v>205</v>
+      </c>
+      <c r="AG48">
+        <v>179</v>
+      </c>
+      <c r="AH48">
+        <v>157</v>
+      </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>1.8</v>
       </c>
@@ -8444,8 +9633,32 @@
       <c r="Z49">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA49">
+        <v>400</v>
+      </c>
+      <c r="AB49">
+        <v>350</v>
+      </c>
+      <c r="AC49">
+        <v>306</v>
+      </c>
+      <c r="AD49">
+        <v>267</v>
+      </c>
+      <c r="AE49">
+        <v>234</v>
+      </c>
+      <c r="AF49">
+        <v>205</v>
+      </c>
+      <c r="AG49">
+        <v>179</v>
+      </c>
+      <c r="AH49">
+        <v>157</v>
+      </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>1.5</v>
       </c>
@@ -8525,8 +9738,32 @@
       <c r="Z50">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA50">
+        <v>400</v>
+      </c>
+      <c r="AB50">
+        <v>350</v>
+      </c>
+      <c r="AC50">
+        <v>306</v>
+      </c>
+      <c r="AD50">
+        <v>267</v>
+      </c>
+      <c r="AE50">
+        <v>234</v>
+      </c>
+      <c r="AF50">
+        <v>205</v>
+      </c>
+      <c r="AG50">
+        <v>179</v>
+      </c>
+      <c r="AH50">
+        <v>157</v>
+      </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>1.5</v>
       </c>
@@ -8606,8 +9843,32 @@
       <c r="Z51">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA51">
+        <v>400</v>
+      </c>
+      <c r="AB51">
+        <v>350</v>
+      </c>
+      <c r="AC51">
+        <v>306</v>
+      </c>
+      <c r="AD51">
+        <v>267</v>
+      </c>
+      <c r="AE51">
+        <v>234</v>
+      </c>
+      <c r="AF51">
+        <v>205</v>
+      </c>
+      <c r="AG51">
+        <v>179</v>
+      </c>
+      <c r="AH51">
+        <v>157</v>
+      </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>2.5</v>
       </c>
@@ -8687,8 +9948,32 @@
       <c r="Z52">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA52">
+        <v>400</v>
+      </c>
+      <c r="AB52">
+        <v>350</v>
+      </c>
+      <c r="AC52">
+        <v>306</v>
+      </c>
+      <c r="AD52">
+        <v>267</v>
+      </c>
+      <c r="AE52">
+        <v>234</v>
+      </c>
+      <c r="AF52">
+        <v>205</v>
+      </c>
+      <c r="AG52">
+        <v>179</v>
+      </c>
+      <c r="AH52">
+        <v>157</v>
+      </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -8768,8 +10053,32 @@
       <c r="Z53">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA53">
+        <v>400</v>
+      </c>
+      <c r="AB53">
+        <v>350</v>
+      </c>
+      <c r="AC53">
+        <v>306</v>
+      </c>
+      <c r="AD53">
+        <v>267</v>
+      </c>
+      <c r="AE53">
+        <v>234</v>
+      </c>
+      <c r="AF53">
+        <v>205</v>
+      </c>
+      <c r="AG53">
+        <v>179</v>
+      </c>
+      <c r="AH53">
+        <v>157</v>
+      </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>2.5</v>
       </c>
@@ -8849,8 +10158,32 @@
       <c r="Z54">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA54">
+        <v>400</v>
+      </c>
+      <c r="AB54">
+        <v>350</v>
+      </c>
+      <c r="AC54">
+        <v>306</v>
+      </c>
+      <c r="AD54">
+        <v>267</v>
+      </c>
+      <c r="AE54">
+        <v>234</v>
+      </c>
+      <c r="AF54">
+        <v>205</v>
+      </c>
+      <c r="AG54">
+        <v>179</v>
+      </c>
+      <c r="AH54">
+        <v>157</v>
+      </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>2.7</v>
       </c>
@@ -8930,8 +10263,32 @@
       <c r="Z55">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA55">
+        <v>400</v>
+      </c>
+      <c r="AB55">
+        <v>350</v>
+      </c>
+      <c r="AC55">
+        <v>306</v>
+      </c>
+      <c r="AD55">
+        <v>267</v>
+      </c>
+      <c r="AE55">
+        <v>234</v>
+      </c>
+      <c r="AF55">
+        <v>205</v>
+      </c>
+      <c r="AG55">
+        <v>179</v>
+      </c>
+      <c r="AH55">
+        <v>157</v>
+      </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A56">
         <v>1.5</v>
       </c>
@@ -9011,8 +10368,32 @@
       <c r="Z56">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA56">
+        <v>400</v>
+      </c>
+      <c r="AB56">
+        <v>350</v>
+      </c>
+      <c r="AC56">
+        <v>306</v>
+      </c>
+      <c r="AD56">
+        <v>267</v>
+      </c>
+      <c r="AE56">
+        <v>234</v>
+      </c>
+      <c r="AF56">
+        <v>205</v>
+      </c>
+      <c r="AG56">
+        <v>179</v>
+      </c>
+      <c r="AH56">
+        <v>157</v>
+      </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A57">
         <v>1.5</v>
       </c>
@@ -9092,8 +10473,32 @@
       <c r="Z57">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA57">
+        <v>400</v>
+      </c>
+      <c r="AB57">
+        <v>350</v>
+      </c>
+      <c r="AC57">
+        <v>306</v>
+      </c>
+      <c r="AD57">
+        <v>267</v>
+      </c>
+      <c r="AE57">
+        <v>234</v>
+      </c>
+      <c r="AF57">
+        <v>205</v>
+      </c>
+      <c r="AG57">
+        <v>179</v>
+      </c>
+      <c r="AH57">
+        <v>157</v>
+      </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A58">
         <v>1.5</v>
       </c>
@@ -9173,8 +10578,32 @@
       <c r="Z58">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA58">
+        <v>400</v>
+      </c>
+      <c r="AB58">
+        <v>350</v>
+      </c>
+      <c r="AC58">
+        <v>306</v>
+      </c>
+      <c r="AD58">
+        <v>267</v>
+      </c>
+      <c r="AE58">
+        <v>234</v>
+      </c>
+      <c r="AF58">
+        <v>205</v>
+      </c>
+      <c r="AG58">
+        <v>179</v>
+      </c>
+      <c r="AH58">
+        <v>157</v>
+      </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A59">
         <v>0.5</v>
       </c>
@@ -9254,8 +10683,32 @@
       <c r="Z59">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA59">
+        <v>400</v>
+      </c>
+      <c r="AB59">
+        <v>350</v>
+      </c>
+      <c r="AC59">
+        <v>306</v>
+      </c>
+      <c r="AD59">
+        <v>267</v>
+      </c>
+      <c r="AE59">
+        <v>234</v>
+      </c>
+      <c r="AF59">
+        <v>205</v>
+      </c>
+      <c r="AG59">
+        <v>179</v>
+      </c>
+      <c r="AH59">
+        <v>157</v>
+      </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A60">
         <v>0.5</v>
       </c>
@@ -9335,8 +10788,32 @@
       <c r="Z60">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA60">
+        <v>400</v>
+      </c>
+      <c r="AB60">
+        <v>350</v>
+      </c>
+      <c r="AC60">
+        <v>306</v>
+      </c>
+      <c r="AD60">
+        <v>267</v>
+      </c>
+      <c r="AE60">
+        <v>234</v>
+      </c>
+      <c r="AF60">
+        <v>205</v>
+      </c>
+      <c r="AG60">
+        <v>179</v>
+      </c>
+      <c r="AH60">
+        <v>157</v>
+      </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A61">
         <v>0.5</v>
       </c>
@@ -9416,8 +10893,32 @@
       <c r="Z61">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA61">
+        <v>400</v>
+      </c>
+      <c r="AB61">
+        <v>350</v>
+      </c>
+      <c r="AC61">
+        <v>306</v>
+      </c>
+      <c r="AD61">
+        <v>267</v>
+      </c>
+      <c r="AE61">
+        <v>234</v>
+      </c>
+      <c r="AF61">
+        <v>205</v>
+      </c>
+      <c r="AG61">
+        <v>179</v>
+      </c>
+      <c r="AH61">
+        <v>157</v>
+      </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A62">
         <v>0.5</v>
       </c>
@@ -9497,8 +10998,32 @@
       <c r="Z62">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA62">
+        <v>400</v>
+      </c>
+      <c r="AB62">
+        <v>350</v>
+      </c>
+      <c r="AC62">
+        <v>306</v>
+      </c>
+      <c r="AD62">
+        <v>267</v>
+      </c>
+      <c r="AE62">
+        <v>234</v>
+      </c>
+      <c r="AF62">
+        <v>205</v>
+      </c>
+      <c r="AG62">
+        <v>179</v>
+      </c>
+      <c r="AH62">
+        <v>157</v>
+      </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A63">
         <v>0.5</v>
       </c>
@@ -9578,8 +11103,32 @@
       <c r="Z63">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA63">
+        <v>400</v>
+      </c>
+      <c r="AB63">
+        <v>350</v>
+      </c>
+      <c r="AC63">
+        <v>306</v>
+      </c>
+      <c r="AD63">
+        <v>267</v>
+      </c>
+      <c r="AE63">
+        <v>234</v>
+      </c>
+      <c r="AF63">
+        <v>205</v>
+      </c>
+      <c r="AG63">
+        <v>179</v>
+      </c>
+      <c r="AH63">
+        <v>157</v>
+      </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A64">
         <v>4.5</v>
       </c>
@@ -9659,8 +11208,32 @@
       <c r="Z64">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA64">
+        <v>400</v>
+      </c>
+      <c r="AB64">
+        <v>350</v>
+      </c>
+      <c r="AC64">
+        <v>306</v>
+      </c>
+      <c r="AD64">
+        <v>267</v>
+      </c>
+      <c r="AE64">
+        <v>234</v>
+      </c>
+      <c r="AF64">
+        <v>205</v>
+      </c>
+      <c r="AG64">
+        <v>179</v>
+      </c>
+      <c r="AH64">
+        <v>157</v>
+      </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A65">
         <v>0.5</v>
       </c>
@@ -9740,8 +11313,32 @@
       <c r="Z65">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA65">
+        <v>400</v>
+      </c>
+      <c r="AB65">
+        <v>350</v>
+      </c>
+      <c r="AC65">
+        <v>306</v>
+      </c>
+      <c r="AD65">
+        <v>267</v>
+      </c>
+      <c r="AE65">
+        <v>234</v>
+      </c>
+      <c r="AF65">
+        <v>205</v>
+      </c>
+      <c r="AG65">
+        <v>179</v>
+      </c>
+      <c r="AH65">
+        <v>157</v>
+      </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A66">
         <v>1.7</v>
       </c>
@@ -9821,8 +11418,32 @@
       <c r="Z66">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA66">
+        <v>400</v>
+      </c>
+      <c r="AB66">
+        <v>350</v>
+      </c>
+      <c r="AC66">
+        <v>306</v>
+      </c>
+      <c r="AD66">
+        <v>267</v>
+      </c>
+      <c r="AE66">
+        <v>234</v>
+      </c>
+      <c r="AF66">
+        <v>205</v>
+      </c>
+      <c r="AG66">
+        <v>179</v>
+      </c>
+      <c r="AH66">
+        <v>157</v>
+      </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A67">
         <v>0.5</v>
       </c>
@@ -9902,8 +11523,32 @@
       <c r="Z67">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA67">
+        <v>400</v>
+      </c>
+      <c r="AB67">
+        <v>350</v>
+      </c>
+      <c r="AC67">
+        <v>306</v>
+      </c>
+      <c r="AD67">
+        <v>267</v>
+      </c>
+      <c r="AE67">
+        <v>234</v>
+      </c>
+      <c r="AF67">
+        <v>205</v>
+      </c>
+      <c r="AG67">
+        <v>179</v>
+      </c>
+      <c r="AH67">
+        <v>157</v>
+      </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A68">
         <v>0.6</v>
       </c>
@@ -9983,8 +11628,32 @@
       <c r="Z68">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA68">
+        <v>400</v>
+      </c>
+      <c r="AB68">
+        <v>350</v>
+      </c>
+      <c r="AC68">
+        <v>306</v>
+      </c>
+      <c r="AD68">
+        <v>267</v>
+      </c>
+      <c r="AE68">
+        <v>234</v>
+      </c>
+      <c r="AF68">
+        <v>205</v>
+      </c>
+      <c r="AG68">
+        <v>179</v>
+      </c>
+      <c r="AH68">
+        <v>157</v>
+      </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A69">
         <v>1.5</v>
       </c>
@@ -10064,8 +11733,32 @@
       <c r="Z69">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA69">
+        <v>400</v>
+      </c>
+      <c r="AB69">
+        <v>350</v>
+      </c>
+      <c r="AC69">
+        <v>306</v>
+      </c>
+      <c r="AD69">
+        <v>267</v>
+      </c>
+      <c r="AE69">
+        <v>234</v>
+      </c>
+      <c r="AF69">
+        <v>205</v>
+      </c>
+      <c r="AG69">
+        <v>179</v>
+      </c>
+      <c r="AH69">
+        <v>157</v>
+      </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A70">
         <v>0.5</v>
       </c>
@@ -10145,8 +11838,32 @@
       <c r="Z70">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA70">
+        <v>400</v>
+      </c>
+      <c r="AB70">
+        <v>350</v>
+      </c>
+      <c r="AC70">
+        <v>306</v>
+      </c>
+      <c r="AD70">
+        <v>267</v>
+      </c>
+      <c r="AE70">
+        <v>234</v>
+      </c>
+      <c r="AF70">
+        <v>205</v>
+      </c>
+      <c r="AG70">
+        <v>179</v>
+      </c>
+      <c r="AH70">
+        <v>157</v>
+      </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A71">
         <v>1.5</v>
       </c>
@@ -10226,8 +11943,32 @@
       <c r="Z71">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA71">
+        <v>400</v>
+      </c>
+      <c r="AB71">
+        <v>350</v>
+      </c>
+      <c r="AC71">
+        <v>306</v>
+      </c>
+      <c r="AD71">
+        <v>267</v>
+      </c>
+      <c r="AE71">
+        <v>234</v>
+      </c>
+      <c r="AF71">
+        <v>205</v>
+      </c>
+      <c r="AG71">
+        <v>179</v>
+      </c>
+      <c r="AH71">
+        <v>157</v>
+      </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A72">
         <v>1.5</v>
       </c>
@@ -10307,8 +12048,32 @@
       <c r="Z72">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA72">
+        <v>400</v>
+      </c>
+      <c r="AB72">
+        <v>350</v>
+      </c>
+      <c r="AC72">
+        <v>306</v>
+      </c>
+      <c r="AD72">
+        <v>267</v>
+      </c>
+      <c r="AE72">
+        <v>234</v>
+      </c>
+      <c r="AF72">
+        <v>205</v>
+      </c>
+      <c r="AG72">
+        <v>179</v>
+      </c>
+      <c r="AH72">
+        <v>157</v>
+      </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A73">
         <v>1.5</v>
       </c>
@@ -10388,8 +12153,32 @@
       <c r="Z73">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA73">
+        <v>400</v>
+      </c>
+      <c r="AB73">
+        <v>350</v>
+      </c>
+      <c r="AC73">
+        <v>306</v>
+      </c>
+      <c r="AD73">
+        <v>267</v>
+      </c>
+      <c r="AE73">
+        <v>234</v>
+      </c>
+      <c r="AF73">
+        <v>205</v>
+      </c>
+      <c r="AG73">
+        <v>179</v>
+      </c>
+      <c r="AH73">
+        <v>157</v>
+      </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A74">
         <v>1.7</v>
       </c>
@@ -10469,8 +12258,32 @@
       <c r="Z74">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA74">
+        <v>400</v>
+      </c>
+      <c r="AB74">
+        <v>350</v>
+      </c>
+      <c r="AC74">
+        <v>306</v>
+      </c>
+      <c r="AD74">
+        <v>267</v>
+      </c>
+      <c r="AE74">
+        <v>234</v>
+      </c>
+      <c r="AF74">
+        <v>205</v>
+      </c>
+      <c r="AG74">
+        <v>179</v>
+      </c>
+      <c r="AH74">
+        <v>157</v>
+      </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A75">
         <v>1.5</v>
       </c>
@@ -10550,8 +12363,32 @@
       <c r="Z75">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA75">
+        <v>400</v>
+      </c>
+      <c r="AB75">
+        <v>350</v>
+      </c>
+      <c r="AC75">
+        <v>306</v>
+      </c>
+      <c r="AD75">
+        <v>267</v>
+      </c>
+      <c r="AE75">
+        <v>234</v>
+      </c>
+      <c r="AF75">
+        <v>205</v>
+      </c>
+      <c r="AG75">
+        <v>179</v>
+      </c>
+      <c r="AH75">
+        <v>157</v>
+      </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A76">
         <v>4.5</v>
       </c>
@@ -10631,8 +12468,32 @@
       <c r="Z76">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA76">
+        <v>400</v>
+      </c>
+      <c r="AB76">
+        <v>350</v>
+      </c>
+      <c r="AC76">
+        <v>306</v>
+      </c>
+      <c r="AD76">
+        <v>267</v>
+      </c>
+      <c r="AE76">
+        <v>234</v>
+      </c>
+      <c r="AF76">
+        <v>205</v>
+      </c>
+      <c r="AG76">
+        <v>179</v>
+      </c>
+      <c r="AH76">
+        <v>157</v>
+      </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A77">
         <v>1.5</v>
       </c>
@@ -10712,8 +12573,32 @@
       <c r="Z77">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA77">
+        <v>400</v>
+      </c>
+      <c r="AB77">
+        <v>350</v>
+      </c>
+      <c r="AC77">
+        <v>306</v>
+      </c>
+      <c r="AD77">
+        <v>267</v>
+      </c>
+      <c r="AE77">
+        <v>234</v>
+      </c>
+      <c r="AF77">
+        <v>205</v>
+      </c>
+      <c r="AG77">
+        <v>179</v>
+      </c>
+      <c r="AH77">
+        <v>157</v>
+      </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A78">
         <v>0.5</v>
       </c>
@@ -10793,8 +12678,32 @@
       <c r="Z78">
         <v>0.80544747081712065</v>
       </c>
+      <c r="AA78">
+        <v>400</v>
+      </c>
+      <c r="AB78">
+        <v>350</v>
+      </c>
+      <c r="AC78">
+        <v>306</v>
+      </c>
+      <c r="AD78">
+        <v>267</v>
+      </c>
+      <c r="AE78">
+        <v>234</v>
+      </c>
+      <c r="AF78">
+        <v>205</v>
+      </c>
+      <c r="AG78">
+        <v>179</v>
+      </c>
+      <c r="AH78">
+        <v>157</v>
+      </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A79">
         <v>2.5</v>
       </c>
@@ -10874,8 +12783,32 @@
       <c r="Z79">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA79">
+        <v>400</v>
+      </c>
+      <c r="AB79">
+        <v>350</v>
+      </c>
+      <c r="AC79">
+        <v>306</v>
+      </c>
+      <c r="AD79">
+        <v>267</v>
+      </c>
+      <c r="AE79">
+        <v>234</v>
+      </c>
+      <c r="AF79">
+        <v>205</v>
+      </c>
+      <c r="AG79">
+        <v>179</v>
+      </c>
+      <c r="AH79">
+        <v>157</v>
+      </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A80">
         <v>0.5</v>
       </c>
@@ -10955,8 +12888,32 @@
       <c r="Z80">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA80">
+        <v>400</v>
+      </c>
+      <c r="AB80">
+        <v>350</v>
+      </c>
+      <c r="AC80">
+        <v>306</v>
+      </c>
+      <c r="AD80">
+        <v>267</v>
+      </c>
+      <c r="AE80">
+        <v>234</v>
+      </c>
+      <c r="AF80">
+        <v>205</v>
+      </c>
+      <c r="AG80">
+        <v>179</v>
+      </c>
+      <c r="AH80">
+        <v>157</v>
+      </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A81">
         <v>3.5</v>
       </c>
@@ -11036,8 +12993,32 @@
       <c r="Z81">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA81">
+        <v>400</v>
+      </c>
+      <c r="AB81">
+        <v>350</v>
+      </c>
+      <c r="AC81">
+        <v>306</v>
+      </c>
+      <c r="AD81">
+        <v>267</v>
+      </c>
+      <c r="AE81">
+        <v>234</v>
+      </c>
+      <c r="AF81">
+        <v>205</v>
+      </c>
+      <c r="AG81">
+        <v>179</v>
+      </c>
+      <c r="AH81">
+        <v>157</v>
+      </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A82">
         <v>0.5</v>
       </c>
@@ -11117,8 +13098,32 @@
       <c r="Z82">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA82">
+        <v>400</v>
+      </c>
+      <c r="AB82">
+        <v>350</v>
+      </c>
+      <c r="AC82">
+        <v>306</v>
+      </c>
+      <c r="AD82">
+        <v>267</v>
+      </c>
+      <c r="AE82">
+        <v>234</v>
+      </c>
+      <c r="AF82">
+        <v>205</v>
+      </c>
+      <c r="AG82">
+        <v>179</v>
+      </c>
+      <c r="AH82">
+        <v>157</v>
+      </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A83">
         <v>2.8</v>
       </c>
@@ -11198,8 +13203,32 @@
       <c r="Z83">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA83">
+        <v>400</v>
+      </c>
+      <c r="AB83">
+        <v>350</v>
+      </c>
+      <c r="AC83">
+        <v>306</v>
+      </c>
+      <c r="AD83">
+        <v>267</v>
+      </c>
+      <c r="AE83">
+        <v>234</v>
+      </c>
+      <c r="AF83">
+        <v>205</v>
+      </c>
+      <c r="AG83">
+        <v>179</v>
+      </c>
+      <c r="AH83">
+        <v>157</v>
+      </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A84">
         <v>1.5</v>
       </c>
@@ -11279,8 +13308,32 @@
       <c r="Z84">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA84">
+        <v>400</v>
+      </c>
+      <c r="AB84">
+        <v>350</v>
+      </c>
+      <c r="AC84">
+        <v>306</v>
+      </c>
+      <c r="AD84">
+        <v>267</v>
+      </c>
+      <c r="AE84">
+        <v>234</v>
+      </c>
+      <c r="AF84">
+        <v>205</v>
+      </c>
+      <c r="AG84">
+        <v>179</v>
+      </c>
+      <c r="AH84">
+        <v>157</v>
+      </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A85">
         <v>1.5</v>
       </c>
@@ -11360,8 +13413,32 @@
       <c r="Z85">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA85">
+        <v>400</v>
+      </c>
+      <c r="AB85">
+        <v>350</v>
+      </c>
+      <c r="AC85">
+        <v>306</v>
+      </c>
+      <c r="AD85">
+        <v>267</v>
+      </c>
+      <c r="AE85">
+        <v>234</v>
+      </c>
+      <c r="AF85">
+        <v>205</v>
+      </c>
+      <c r="AG85">
+        <v>179</v>
+      </c>
+      <c r="AH85">
+        <v>157</v>
+      </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A86">
         <v>2.8</v>
       </c>
@@ -11441,8 +13518,32 @@
       <c r="Z86">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA86">
+        <v>400</v>
+      </c>
+      <c r="AB86">
+        <v>350</v>
+      </c>
+      <c r="AC86">
+        <v>306</v>
+      </c>
+      <c r="AD86">
+        <v>267</v>
+      </c>
+      <c r="AE86">
+        <v>234</v>
+      </c>
+      <c r="AF86">
+        <v>205</v>
+      </c>
+      <c r="AG86">
+        <v>179</v>
+      </c>
+      <c r="AH86">
+        <v>157</v>
+      </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A87">
         <v>0.5</v>
       </c>
@@ -11522,8 +13623,32 @@
       <c r="Z87">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA87">
+        <v>400</v>
+      </c>
+      <c r="AB87">
+        <v>350</v>
+      </c>
+      <c r="AC87">
+        <v>306</v>
+      </c>
+      <c r="AD87">
+        <v>267</v>
+      </c>
+      <c r="AE87">
+        <v>234</v>
+      </c>
+      <c r="AF87">
+        <v>205</v>
+      </c>
+      <c r="AG87">
+        <v>179</v>
+      </c>
+      <c r="AH87">
+        <v>157</v>
+      </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A88">
         <v>0.5</v>
       </c>
@@ -11603,8 +13728,32 @@
       <c r="Z88">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA88">
+        <v>400</v>
+      </c>
+      <c r="AB88">
+        <v>350</v>
+      </c>
+      <c r="AC88">
+        <v>306</v>
+      </c>
+      <c r="AD88">
+        <v>267</v>
+      </c>
+      <c r="AE88">
+        <v>234</v>
+      </c>
+      <c r="AF88">
+        <v>205</v>
+      </c>
+      <c r="AG88">
+        <v>179</v>
+      </c>
+      <c r="AH88">
+        <v>157</v>
+      </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A89">
         <v>0.5</v>
       </c>
@@ -11684,8 +13833,32 @@
       <c r="Z89">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA89">
+        <v>400</v>
+      </c>
+      <c r="AB89">
+        <v>350</v>
+      </c>
+      <c r="AC89">
+        <v>306</v>
+      </c>
+      <c r="AD89">
+        <v>267</v>
+      </c>
+      <c r="AE89">
+        <v>234</v>
+      </c>
+      <c r="AF89">
+        <v>205</v>
+      </c>
+      <c r="AG89">
+        <v>179</v>
+      </c>
+      <c r="AH89">
+        <v>157</v>
+      </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A90">
         <v>0.7</v>
       </c>
@@ -11765,8 +13938,32 @@
       <c r="Z90">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA90">
+        <v>400</v>
+      </c>
+      <c r="AB90">
+        <v>350</v>
+      </c>
+      <c r="AC90">
+        <v>306</v>
+      </c>
+      <c r="AD90">
+        <v>267</v>
+      </c>
+      <c r="AE90">
+        <v>234</v>
+      </c>
+      <c r="AF90">
+        <v>205</v>
+      </c>
+      <c r="AG90">
+        <v>179</v>
+      </c>
+      <c r="AH90">
+        <v>157</v>
+      </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A91">
         <v>0.5</v>
       </c>
@@ -11846,8 +14043,32 @@
       <c r="Z91">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA91">
+        <v>400</v>
+      </c>
+      <c r="AB91">
+        <v>350</v>
+      </c>
+      <c r="AC91">
+        <v>306</v>
+      </c>
+      <c r="AD91">
+        <v>267</v>
+      </c>
+      <c r="AE91">
+        <v>234</v>
+      </c>
+      <c r="AF91">
+        <v>205</v>
+      </c>
+      <c r="AG91">
+        <v>179</v>
+      </c>
+      <c r="AH91">
+        <v>157</v>
+      </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A92">
         <v>0.5</v>
       </c>
@@ -11927,8 +14148,32 @@
       <c r="Z92">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA92">
+        <v>400</v>
+      </c>
+      <c r="AB92">
+        <v>350</v>
+      </c>
+      <c r="AC92">
+        <v>306</v>
+      </c>
+      <c r="AD92">
+        <v>267</v>
+      </c>
+      <c r="AE92">
+        <v>234</v>
+      </c>
+      <c r="AF92">
+        <v>205</v>
+      </c>
+      <c r="AG92">
+        <v>179</v>
+      </c>
+      <c r="AH92">
+        <v>157</v>
+      </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A93">
         <v>0.5</v>
       </c>
@@ -12008,8 +14253,32 @@
       <c r="Z93">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA93">
+        <v>400</v>
+      </c>
+      <c r="AB93">
+        <v>350</v>
+      </c>
+      <c r="AC93">
+        <v>306</v>
+      </c>
+      <c r="AD93">
+        <v>267</v>
+      </c>
+      <c r="AE93">
+        <v>234</v>
+      </c>
+      <c r="AF93">
+        <v>205</v>
+      </c>
+      <c r="AG93">
+        <v>179</v>
+      </c>
+      <c r="AH93">
+        <v>157</v>
+      </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A94">
         <v>1.5</v>
       </c>
@@ -12089,8 +14358,32 @@
       <c r="Z94">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA94">
+        <v>400</v>
+      </c>
+      <c r="AB94">
+        <v>350</v>
+      </c>
+      <c r="AC94">
+        <v>306</v>
+      </c>
+      <c r="AD94">
+        <v>267</v>
+      </c>
+      <c r="AE94">
+        <v>234</v>
+      </c>
+      <c r="AF94">
+        <v>205</v>
+      </c>
+      <c r="AG94">
+        <v>179</v>
+      </c>
+      <c r="AH94">
+        <v>157</v>
+      </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A95">
         <v>0.5</v>
       </c>
@@ -12170,8 +14463,32 @@
       <c r="Z95">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA95">
+        <v>400</v>
+      </c>
+      <c r="AB95">
+        <v>350</v>
+      </c>
+      <c r="AC95">
+        <v>306</v>
+      </c>
+      <c r="AD95">
+        <v>267</v>
+      </c>
+      <c r="AE95">
+        <v>234</v>
+      </c>
+      <c r="AF95">
+        <v>205</v>
+      </c>
+      <c r="AG95">
+        <v>179</v>
+      </c>
+      <c r="AH95">
+        <v>157</v>
+      </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A96">
         <v>1.5</v>
       </c>
@@ -12251,8 +14568,32 @@
       <c r="Z96">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA96">
+        <v>400</v>
+      </c>
+      <c r="AB96">
+        <v>350</v>
+      </c>
+      <c r="AC96">
+        <v>306</v>
+      </c>
+      <c r="AD96">
+        <v>267</v>
+      </c>
+      <c r="AE96">
+        <v>234</v>
+      </c>
+      <c r="AF96">
+        <v>205</v>
+      </c>
+      <c r="AG96">
+        <v>179</v>
+      </c>
+      <c r="AH96">
+        <v>157</v>
+      </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A97">
         <v>1.5</v>
       </c>
@@ -12332,8 +14673,32 @@
       <c r="Z97">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA97">
+        <v>400</v>
+      </c>
+      <c r="AB97">
+        <v>350</v>
+      </c>
+      <c r="AC97">
+        <v>306</v>
+      </c>
+      <c r="AD97">
+        <v>267</v>
+      </c>
+      <c r="AE97">
+        <v>234</v>
+      </c>
+      <c r="AF97">
+        <v>205</v>
+      </c>
+      <c r="AG97">
+        <v>179</v>
+      </c>
+      <c r="AH97">
+        <v>157</v>
+      </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A98">
         <v>1.5</v>
       </c>
@@ -12413,8 +14778,32 @@
       <c r="Z98">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA98">
+        <v>400</v>
+      </c>
+      <c r="AB98">
+        <v>350</v>
+      </c>
+      <c r="AC98">
+        <v>306</v>
+      </c>
+      <c r="AD98">
+        <v>267</v>
+      </c>
+      <c r="AE98">
+        <v>234</v>
+      </c>
+      <c r="AF98">
+        <v>205</v>
+      </c>
+      <c r="AG98">
+        <v>179</v>
+      </c>
+      <c r="AH98">
+        <v>157</v>
+      </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A99">
         <v>1.5</v>
       </c>
@@ -12494,8 +14883,32 @@
       <c r="Z99">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA99">
+        <v>400</v>
+      </c>
+      <c r="AB99">
+        <v>350</v>
+      </c>
+      <c r="AC99">
+        <v>306</v>
+      </c>
+      <c r="AD99">
+        <v>267</v>
+      </c>
+      <c r="AE99">
+        <v>234</v>
+      </c>
+      <c r="AF99">
+        <v>205</v>
+      </c>
+      <c r="AG99">
+        <v>179</v>
+      </c>
+      <c r="AH99">
+        <v>157</v>
+      </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A100">
         <v>1.5</v>
       </c>
@@ -12575,8 +14988,32 @@
       <c r="Z100">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA100">
+        <v>400</v>
+      </c>
+      <c r="AB100">
+        <v>350</v>
+      </c>
+      <c r="AC100">
+        <v>306</v>
+      </c>
+      <c r="AD100">
+        <v>267</v>
+      </c>
+      <c r="AE100">
+        <v>234</v>
+      </c>
+      <c r="AF100">
+        <v>205</v>
+      </c>
+      <c r="AG100">
+        <v>179</v>
+      </c>
+      <c r="AH100">
+        <v>157</v>
+      </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A101">
         <v>1.5</v>
       </c>
@@ -12656,8 +15093,32 @@
       <c r="Z101">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA101">
+        <v>400</v>
+      </c>
+      <c r="AB101">
+        <v>350</v>
+      </c>
+      <c r="AC101">
+        <v>306</v>
+      </c>
+      <c r="AD101">
+        <v>267</v>
+      </c>
+      <c r="AE101">
+        <v>234</v>
+      </c>
+      <c r="AF101">
+        <v>205</v>
+      </c>
+      <c r="AG101">
+        <v>179</v>
+      </c>
+      <c r="AH101">
+        <v>157</v>
+      </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A102">
         <v>0.5</v>
       </c>
@@ -12737,8 +15198,32 @@
       <c r="Z102">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA102">
+        <v>400</v>
+      </c>
+      <c r="AB102">
+        <v>350</v>
+      </c>
+      <c r="AC102">
+        <v>306</v>
+      </c>
+      <c r="AD102">
+        <v>267</v>
+      </c>
+      <c r="AE102">
+        <v>234</v>
+      </c>
+      <c r="AF102">
+        <v>205</v>
+      </c>
+      <c r="AG102">
+        <v>179</v>
+      </c>
+      <c r="AH102">
+        <v>157</v>
+      </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A103">
         <v>1.5</v>
       </c>
@@ -12818,8 +15303,32 @@
       <c r="Z103">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA103">
+        <v>400</v>
+      </c>
+      <c r="AB103">
+        <v>350</v>
+      </c>
+      <c r="AC103">
+        <v>306</v>
+      </c>
+      <c r="AD103">
+        <v>267</v>
+      </c>
+      <c r="AE103">
+        <v>234</v>
+      </c>
+      <c r="AF103">
+        <v>205</v>
+      </c>
+      <c r="AG103">
+        <v>179</v>
+      </c>
+      <c r="AH103">
+        <v>157</v>
+      </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A104">
         <v>1.5</v>
       </c>
@@ -12899,8 +15408,32 @@
       <c r="Z104">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA104">
+        <v>400</v>
+      </c>
+      <c r="AB104">
+        <v>350</v>
+      </c>
+      <c r="AC104">
+        <v>306</v>
+      </c>
+      <c r="AD104">
+        <v>267</v>
+      </c>
+      <c r="AE104">
+        <v>234</v>
+      </c>
+      <c r="AF104">
+        <v>205</v>
+      </c>
+      <c r="AG104">
+        <v>179</v>
+      </c>
+      <c r="AH104">
+        <v>157</v>
+      </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A105">
         <v>1.5</v>
       </c>
@@ -12980,8 +15513,32 @@
       <c r="Z105">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA105">
+        <v>400</v>
+      </c>
+      <c r="AB105">
+        <v>350</v>
+      </c>
+      <c r="AC105">
+        <v>306</v>
+      </c>
+      <c r="AD105">
+        <v>267</v>
+      </c>
+      <c r="AE105">
+        <v>234</v>
+      </c>
+      <c r="AF105">
+        <v>205</v>
+      </c>
+      <c r="AG105">
+        <v>179</v>
+      </c>
+      <c r="AH105">
+        <v>157</v>
+      </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A106">
         <v>1.5</v>
       </c>
@@ -13061,8 +15618,32 @@
       <c r="Z106">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA106">
+        <v>400</v>
+      </c>
+      <c r="AB106">
+        <v>350</v>
+      </c>
+      <c r="AC106">
+        <v>306</v>
+      </c>
+      <c r="AD106">
+        <v>267</v>
+      </c>
+      <c r="AE106">
+        <v>234</v>
+      </c>
+      <c r="AF106">
+        <v>205</v>
+      </c>
+      <c r="AG106">
+        <v>179</v>
+      </c>
+      <c r="AH106">
+        <v>157</v>
+      </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A107">
         <v>0.6</v>
       </c>
@@ -13142,8 +15723,32 @@
       <c r="Z107">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA107">
+        <v>400</v>
+      </c>
+      <c r="AB107">
+        <v>350</v>
+      </c>
+      <c r="AC107">
+        <v>306</v>
+      </c>
+      <c r="AD107">
+        <v>267</v>
+      </c>
+      <c r="AE107">
+        <v>234</v>
+      </c>
+      <c r="AF107">
+        <v>205</v>
+      </c>
+      <c r="AG107">
+        <v>179</v>
+      </c>
+      <c r="AH107">
+        <v>157</v>
+      </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A108">
         <v>5</v>
       </c>
@@ -13223,8 +15828,32 @@
       <c r="Z108">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA108">
+        <v>400</v>
+      </c>
+      <c r="AB108">
+        <v>350</v>
+      </c>
+      <c r="AC108">
+        <v>306</v>
+      </c>
+      <c r="AD108">
+        <v>267</v>
+      </c>
+      <c r="AE108">
+        <v>234</v>
+      </c>
+      <c r="AF108">
+        <v>205</v>
+      </c>
+      <c r="AG108">
+        <v>179</v>
+      </c>
+      <c r="AH108">
+        <v>157</v>
+      </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A109">
         <v>2.7</v>
       </c>
@@ -13304,8 +15933,32 @@
       <c r="Z109">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA109">
+        <v>400</v>
+      </c>
+      <c r="AB109">
+        <v>350</v>
+      </c>
+      <c r="AC109">
+        <v>306</v>
+      </c>
+      <c r="AD109">
+        <v>267</v>
+      </c>
+      <c r="AE109">
+        <v>234</v>
+      </c>
+      <c r="AF109">
+        <v>205</v>
+      </c>
+      <c r="AG109">
+        <v>179</v>
+      </c>
+      <c r="AH109">
+        <v>157</v>
+      </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A110">
         <v>2.5</v>
       </c>
@@ -13385,8 +16038,32 @@
       <c r="Z110">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA110">
+        <v>400</v>
+      </c>
+      <c r="AB110">
+        <v>350</v>
+      </c>
+      <c r="AC110">
+        <v>306</v>
+      </c>
+      <c r="AD110">
+        <v>267</v>
+      </c>
+      <c r="AE110">
+        <v>234</v>
+      </c>
+      <c r="AF110">
+        <v>205</v>
+      </c>
+      <c r="AG110">
+        <v>179</v>
+      </c>
+      <c r="AH110">
+        <v>157</v>
+      </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A111">
         <v>0.5</v>
       </c>
@@ -13466,8 +16143,32 @@
       <c r="Z111">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA111">
+        <v>400</v>
+      </c>
+      <c r="AB111">
+        <v>350</v>
+      </c>
+      <c r="AC111">
+        <v>306</v>
+      </c>
+      <c r="AD111">
+        <v>267</v>
+      </c>
+      <c r="AE111">
+        <v>234</v>
+      </c>
+      <c r="AF111">
+        <v>205</v>
+      </c>
+      <c r="AG111">
+        <v>179</v>
+      </c>
+      <c r="AH111">
+        <v>157</v>
+      </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A112">
         <v>0.8</v>
       </c>
@@ -13547,8 +16248,32 @@
       <c r="Z112">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA112">
+        <v>400</v>
+      </c>
+      <c r="AB112">
+        <v>350</v>
+      </c>
+      <c r="AC112">
+        <v>306</v>
+      </c>
+      <c r="AD112">
+        <v>267</v>
+      </c>
+      <c r="AE112">
+        <v>234</v>
+      </c>
+      <c r="AF112">
+        <v>205</v>
+      </c>
+      <c r="AG112">
+        <v>179</v>
+      </c>
+      <c r="AH112">
+        <v>157</v>
+      </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A113">
         <v>1.5</v>
       </c>
@@ -13628,8 +16353,32 @@
       <c r="Z113">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA113">
+        <v>400</v>
+      </c>
+      <c r="AB113">
+        <v>350</v>
+      </c>
+      <c r="AC113">
+        <v>306</v>
+      </c>
+      <c r="AD113">
+        <v>267</v>
+      </c>
+      <c r="AE113">
+        <v>234</v>
+      </c>
+      <c r="AF113">
+        <v>205</v>
+      </c>
+      <c r="AG113">
+        <v>179</v>
+      </c>
+      <c r="AH113">
+        <v>157</v>
+      </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A114">
         <v>0.5</v>
       </c>
@@ -13709,8 +16458,32 @@
       <c r="Z114">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA114">
+        <v>400</v>
+      </c>
+      <c r="AB114">
+        <v>350</v>
+      </c>
+      <c r="AC114">
+        <v>306</v>
+      </c>
+      <c r="AD114">
+        <v>267</v>
+      </c>
+      <c r="AE114">
+        <v>234</v>
+      </c>
+      <c r="AF114">
+        <v>205</v>
+      </c>
+      <c r="AG114">
+        <v>179</v>
+      </c>
+      <c r="AH114">
+        <v>157</v>
+      </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A115">
         <v>0.7</v>
       </c>
@@ -13790,8 +16563,32 @@
       <c r="Z115">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA115">
+        <v>400</v>
+      </c>
+      <c r="AB115">
+        <v>350</v>
+      </c>
+      <c r="AC115">
+        <v>306</v>
+      </c>
+      <c r="AD115">
+        <v>267</v>
+      </c>
+      <c r="AE115">
+        <v>234</v>
+      </c>
+      <c r="AF115">
+        <v>205</v>
+      </c>
+      <c r="AG115">
+        <v>179</v>
+      </c>
+      <c r="AH115">
+        <v>157</v>
+      </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A116">
         <v>1.5</v>
       </c>
@@ -13871,8 +16668,32 @@
       <c r="Z116">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA116">
+        <v>400</v>
+      </c>
+      <c r="AB116">
+        <v>350</v>
+      </c>
+      <c r="AC116">
+        <v>306</v>
+      </c>
+      <c r="AD116">
+        <v>267</v>
+      </c>
+      <c r="AE116">
+        <v>234</v>
+      </c>
+      <c r="AF116">
+        <v>205</v>
+      </c>
+      <c r="AG116">
+        <v>179</v>
+      </c>
+      <c r="AH116">
+        <v>157</v>
+      </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A117">
         <v>2.7</v>
       </c>
@@ -13952,8 +16773,32 @@
       <c r="Z117">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA117">
+        <v>400</v>
+      </c>
+      <c r="AB117">
+        <v>350</v>
+      </c>
+      <c r="AC117">
+        <v>306</v>
+      </c>
+      <c r="AD117">
+        <v>267</v>
+      </c>
+      <c r="AE117">
+        <v>234</v>
+      </c>
+      <c r="AF117">
+        <v>205</v>
+      </c>
+      <c r="AG117">
+        <v>179</v>
+      </c>
+      <c r="AH117">
+        <v>157</v>
+      </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A118">
         <v>1.5</v>
       </c>
@@ -14033,8 +16878,32 @@
       <c r="Z118">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA118">
+        <v>400</v>
+      </c>
+      <c r="AB118">
+        <v>350</v>
+      </c>
+      <c r="AC118">
+        <v>306</v>
+      </c>
+      <c r="AD118">
+        <v>267</v>
+      </c>
+      <c r="AE118">
+        <v>234</v>
+      </c>
+      <c r="AF118">
+        <v>205</v>
+      </c>
+      <c r="AG118">
+        <v>179</v>
+      </c>
+      <c r="AH118">
+        <v>157</v>
+      </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A119">
         <v>0.5</v>
       </c>
@@ -14114,8 +16983,32 @@
       <c r="Z119">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA119">
+        <v>400</v>
+      </c>
+      <c r="AB119">
+        <v>350</v>
+      </c>
+      <c r="AC119">
+        <v>306</v>
+      </c>
+      <c r="AD119">
+        <v>267</v>
+      </c>
+      <c r="AE119">
+        <v>234</v>
+      </c>
+      <c r="AF119">
+        <v>205</v>
+      </c>
+      <c r="AG119">
+        <v>179</v>
+      </c>
+      <c r="AH119">
+        <v>157</v>
+      </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A120">
         <v>0.5</v>
       </c>
@@ -14195,8 +17088,32 @@
       <c r="Z120">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA120">
+        <v>400</v>
+      </c>
+      <c r="AB120">
+        <v>350</v>
+      </c>
+      <c r="AC120">
+        <v>306</v>
+      </c>
+      <c r="AD120">
+        <v>267</v>
+      </c>
+      <c r="AE120">
+        <v>234</v>
+      </c>
+      <c r="AF120">
+        <v>205</v>
+      </c>
+      <c r="AG120">
+        <v>179</v>
+      </c>
+      <c r="AH120">
+        <v>157</v>
+      </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A121">
         <v>1.8</v>
       </c>
@@ -14276,8 +17193,32 @@
       <c r="Z121">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA121">
+        <v>400</v>
+      </c>
+      <c r="AB121">
+        <v>350</v>
+      </c>
+      <c r="AC121">
+        <v>306</v>
+      </c>
+      <c r="AD121">
+        <v>267</v>
+      </c>
+      <c r="AE121">
+        <v>234</v>
+      </c>
+      <c r="AF121">
+        <v>205</v>
+      </c>
+      <c r="AG121">
+        <v>179</v>
+      </c>
+      <c r="AH121">
+        <v>157</v>
+      </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A122">
         <v>1.5</v>
       </c>
@@ -14357,8 +17298,32 @@
       <c r="Z122">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA122">
+        <v>400</v>
+      </c>
+      <c r="AB122">
+        <v>350</v>
+      </c>
+      <c r="AC122">
+        <v>306</v>
+      </c>
+      <c r="AD122">
+        <v>267</v>
+      </c>
+      <c r="AE122">
+        <v>234</v>
+      </c>
+      <c r="AF122">
+        <v>205</v>
+      </c>
+      <c r="AG122">
+        <v>179</v>
+      </c>
+      <c r="AH122">
+        <v>157</v>
+      </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A123">
         <v>0.5</v>
       </c>
@@ -14438,8 +17403,32 @@
       <c r="Z123">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA123">
+        <v>400</v>
+      </c>
+      <c r="AB123">
+        <v>350</v>
+      </c>
+      <c r="AC123">
+        <v>306</v>
+      </c>
+      <c r="AD123">
+        <v>267</v>
+      </c>
+      <c r="AE123">
+        <v>234</v>
+      </c>
+      <c r="AF123">
+        <v>205</v>
+      </c>
+      <c r="AG123">
+        <v>179</v>
+      </c>
+      <c r="AH123">
+        <v>157</v>
+      </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A124">
         <v>0.5</v>
       </c>
@@ -14519,8 +17508,32 @@
       <c r="Z124">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA124">
+        <v>400</v>
+      </c>
+      <c r="AB124">
+        <v>350</v>
+      </c>
+      <c r="AC124">
+        <v>306</v>
+      </c>
+      <c r="AD124">
+        <v>267</v>
+      </c>
+      <c r="AE124">
+        <v>234</v>
+      </c>
+      <c r="AF124">
+        <v>205</v>
+      </c>
+      <c r="AG124">
+        <v>179</v>
+      </c>
+      <c r="AH124">
+        <v>157</v>
+      </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A125">
         <v>0.7</v>
       </c>
@@ -14600,8 +17613,32 @@
       <c r="Z125">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA125">
+        <v>400</v>
+      </c>
+      <c r="AB125">
+        <v>350</v>
+      </c>
+      <c r="AC125">
+        <v>306</v>
+      </c>
+      <c r="AD125">
+        <v>267</v>
+      </c>
+      <c r="AE125">
+        <v>234</v>
+      </c>
+      <c r="AF125">
+        <v>205</v>
+      </c>
+      <c r="AG125">
+        <v>179</v>
+      </c>
+      <c r="AH125">
+        <v>157</v>
+      </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A126">
         <v>1.5</v>
       </c>
@@ -14681,8 +17718,32 @@
       <c r="Z126">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA126">
+        <v>400</v>
+      </c>
+      <c r="AB126">
+        <v>350</v>
+      </c>
+      <c r="AC126">
+        <v>306</v>
+      </c>
+      <c r="AD126">
+        <v>267</v>
+      </c>
+      <c r="AE126">
+        <v>234</v>
+      </c>
+      <c r="AF126">
+        <v>205</v>
+      </c>
+      <c r="AG126">
+        <v>179</v>
+      </c>
+      <c r="AH126">
+        <v>157</v>
+      </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A127">
         <v>2.7</v>
       </c>
@@ -14762,8 +17823,32 @@
       <c r="Z127">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA127">
+        <v>400</v>
+      </c>
+      <c r="AB127">
+        <v>350</v>
+      </c>
+      <c r="AC127">
+        <v>306</v>
+      </c>
+      <c r="AD127">
+        <v>267</v>
+      </c>
+      <c r="AE127">
+        <v>234</v>
+      </c>
+      <c r="AF127">
+        <v>205</v>
+      </c>
+      <c r="AG127">
+        <v>179</v>
+      </c>
+      <c r="AH127">
+        <v>157</v>
+      </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A128">
         <v>0.5</v>
       </c>
@@ -14843,8 +17928,32 @@
       <c r="Z128">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA128">
+        <v>400</v>
+      </c>
+      <c r="AB128">
+        <v>350</v>
+      </c>
+      <c r="AC128">
+        <v>306</v>
+      </c>
+      <c r="AD128">
+        <v>267</v>
+      </c>
+      <c r="AE128">
+        <v>234</v>
+      </c>
+      <c r="AF128">
+        <v>205</v>
+      </c>
+      <c r="AG128">
+        <v>179</v>
+      </c>
+      <c r="AH128">
+        <v>157</v>
+      </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A129">
         <v>1.5</v>
       </c>
@@ -14924,8 +18033,32 @@
       <c r="Z129">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA129">
+        <v>400</v>
+      </c>
+      <c r="AB129">
+        <v>350</v>
+      </c>
+      <c r="AC129">
+        <v>306</v>
+      </c>
+      <c r="AD129">
+        <v>267</v>
+      </c>
+      <c r="AE129">
+        <v>234</v>
+      </c>
+      <c r="AF129">
+        <v>205</v>
+      </c>
+      <c r="AG129">
+        <v>179</v>
+      </c>
+      <c r="AH129">
+        <v>157</v>
+      </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A130">
         <v>1.5</v>
       </c>
@@ -15005,8 +18138,32 @@
       <c r="Z130">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA130">
+        <v>400</v>
+      </c>
+      <c r="AB130">
+        <v>350</v>
+      </c>
+      <c r="AC130">
+        <v>306</v>
+      </c>
+      <c r="AD130">
+        <v>267</v>
+      </c>
+      <c r="AE130">
+        <v>234</v>
+      </c>
+      <c r="AF130">
+        <v>205</v>
+      </c>
+      <c r="AG130">
+        <v>179</v>
+      </c>
+      <c r="AH130">
+        <v>157</v>
+      </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A131">
         <v>0.5</v>
       </c>
@@ -15086,8 +18243,32 @@
       <c r="Z131">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA131">
+        <v>400</v>
+      </c>
+      <c r="AB131">
+        <v>350</v>
+      </c>
+      <c r="AC131">
+        <v>306</v>
+      </c>
+      <c r="AD131">
+        <v>267</v>
+      </c>
+      <c r="AE131">
+        <v>234</v>
+      </c>
+      <c r="AF131">
+        <v>205</v>
+      </c>
+      <c r="AG131">
+        <v>179</v>
+      </c>
+      <c r="AH131">
+        <v>157</v>
+      </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A132">
         <v>0.7</v>
       </c>
@@ -15167,8 +18348,32 @@
       <c r="Z132">
         <v>0.81378026070763498</v>
       </c>
+      <c r="AA132">
+        <v>400</v>
+      </c>
+      <c r="AB132">
+        <v>350</v>
+      </c>
+      <c r="AC132">
+        <v>306</v>
+      </c>
+      <c r="AD132">
+        <v>267</v>
+      </c>
+      <c r="AE132">
+        <v>234</v>
+      </c>
+      <c r="AF132">
+        <v>205</v>
+      </c>
+      <c r="AG132">
+        <v>179</v>
+      </c>
+      <c r="AH132">
+        <v>157</v>
+      </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A133">
         <v>0.8</v>
       </c>
@@ -15248,8 +18453,32 @@
       <c r="Z133">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA133">
+        <v>400</v>
+      </c>
+      <c r="AB133">
+        <v>350</v>
+      </c>
+      <c r="AC133">
+        <v>306</v>
+      </c>
+      <c r="AD133">
+        <v>267</v>
+      </c>
+      <c r="AE133">
+        <v>234</v>
+      </c>
+      <c r="AF133">
+        <v>205</v>
+      </c>
+      <c r="AG133">
+        <v>179</v>
+      </c>
+      <c r="AH133">
+        <v>157</v>
+      </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A134">
         <v>1.5</v>
       </c>
@@ -15329,8 +18558,32 @@
       <c r="Z134">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA134">
+        <v>400</v>
+      </c>
+      <c r="AB134">
+        <v>350</v>
+      </c>
+      <c r="AC134">
+        <v>306</v>
+      </c>
+      <c r="AD134">
+        <v>267</v>
+      </c>
+      <c r="AE134">
+        <v>234</v>
+      </c>
+      <c r="AF134">
+        <v>205</v>
+      </c>
+      <c r="AG134">
+        <v>179</v>
+      </c>
+      <c r="AH134">
+        <v>157</v>
+      </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A135">
         <v>2.5</v>
       </c>
@@ -15410,8 +18663,32 @@
       <c r="Z135">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA135">
+        <v>400</v>
+      </c>
+      <c r="AB135">
+        <v>350</v>
+      </c>
+      <c r="AC135">
+        <v>306</v>
+      </c>
+      <c r="AD135">
+        <v>267</v>
+      </c>
+      <c r="AE135">
+        <v>234</v>
+      </c>
+      <c r="AF135">
+        <v>205</v>
+      </c>
+      <c r="AG135">
+        <v>179</v>
+      </c>
+      <c r="AH135">
+        <v>157</v>
+      </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A136">
         <v>1.5</v>
       </c>
@@ -15491,8 +18768,32 @@
       <c r="Z136">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA136">
+        <v>400</v>
+      </c>
+      <c r="AB136">
+        <v>350</v>
+      </c>
+      <c r="AC136">
+        <v>306</v>
+      </c>
+      <c r="AD136">
+        <v>267</v>
+      </c>
+      <c r="AE136">
+        <v>234</v>
+      </c>
+      <c r="AF136">
+        <v>205</v>
+      </c>
+      <c r="AG136">
+        <v>179</v>
+      </c>
+      <c r="AH136">
+        <v>157</v>
+      </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A137">
         <v>0.5</v>
       </c>
@@ -15572,8 +18873,32 @@
       <c r="Z137">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA137">
+        <v>400</v>
+      </c>
+      <c r="AB137">
+        <v>350</v>
+      </c>
+      <c r="AC137">
+        <v>306</v>
+      </c>
+      <c r="AD137">
+        <v>267</v>
+      </c>
+      <c r="AE137">
+        <v>234</v>
+      </c>
+      <c r="AF137">
+        <v>205</v>
+      </c>
+      <c r="AG137">
+        <v>179</v>
+      </c>
+      <c r="AH137">
+        <v>157</v>
+      </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A138">
         <v>1.5</v>
       </c>
@@ -15653,8 +18978,32 @@
       <c r="Z138">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA138">
+        <v>400</v>
+      </c>
+      <c r="AB138">
+        <v>350</v>
+      </c>
+      <c r="AC138">
+        <v>306</v>
+      </c>
+      <c r="AD138">
+        <v>267</v>
+      </c>
+      <c r="AE138">
+        <v>234</v>
+      </c>
+      <c r="AF138">
+        <v>205</v>
+      </c>
+      <c r="AG138">
+        <v>179</v>
+      </c>
+      <c r="AH138">
+        <v>157</v>
+      </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A139">
         <v>2.7</v>
       </c>
@@ -15734,8 +19083,32 @@
       <c r="Z139">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA139">
+        <v>400</v>
+      </c>
+      <c r="AB139">
+        <v>350</v>
+      </c>
+      <c r="AC139">
+        <v>306</v>
+      </c>
+      <c r="AD139">
+        <v>267</v>
+      </c>
+      <c r="AE139">
+        <v>234</v>
+      </c>
+      <c r="AF139">
+        <v>205</v>
+      </c>
+      <c r="AG139">
+        <v>179</v>
+      </c>
+      <c r="AH139">
+        <v>157</v>
+      </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A140">
         <v>4.5999999999999996</v>
       </c>
@@ -15815,8 +19188,32 @@
       <c r="Z140">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA140">
+        <v>400</v>
+      </c>
+      <c r="AB140">
+        <v>350</v>
+      </c>
+      <c r="AC140">
+        <v>306</v>
+      </c>
+      <c r="AD140">
+        <v>267</v>
+      </c>
+      <c r="AE140">
+        <v>234</v>
+      </c>
+      <c r="AF140">
+        <v>205</v>
+      </c>
+      <c r="AG140">
+        <v>179</v>
+      </c>
+      <c r="AH140">
+        <v>157</v>
+      </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A141">
         <v>0.5</v>
       </c>
@@ -15896,8 +19293,32 @@
       <c r="Z141">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA141">
+        <v>400</v>
+      </c>
+      <c r="AB141">
+        <v>350</v>
+      </c>
+      <c r="AC141">
+        <v>306</v>
+      </c>
+      <c r="AD141">
+        <v>267</v>
+      </c>
+      <c r="AE141">
+        <v>234</v>
+      </c>
+      <c r="AF141">
+        <v>205</v>
+      </c>
+      <c r="AG141">
+        <v>179</v>
+      </c>
+      <c r="AH141">
+        <v>157</v>
+      </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A142">
         <v>1.5</v>
       </c>
@@ -15977,8 +19398,32 @@
       <c r="Z142">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA142">
+        <v>400</v>
+      </c>
+      <c r="AB142">
+        <v>350</v>
+      </c>
+      <c r="AC142">
+        <v>306</v>
+      </c>
+      <c r="AD142">
+        <v>267</v>
+      </c>
+      <c r="AE142">
+        <v>234</v>
+      </c>
+      <c r="AF142">
+        <v>205</v>
+      </c>
+      <c r="AG142">
+        <v>179</v>
+      </c>
+      <c r="AH142">
+        <v>157</v>
+      </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A143">
         <v>2.8</v>
       </c>
@@ -16058,8 +19503,32 @@
       <c r="Z143">
         <v>0.81851179673321228</v>
       </c>
+      <c r="AA143">
+        <v>400</v>
+      </c>
+      <c r="AB143">
+        <v>350</v>
+      </c>
+      <c r="AC143">
+        <v>306</v>
+      </c>
+      <c r="AD143">
+        <v>267</v>
+      </c>
+      <c r="AE143">
+        <v>234</v>
+      </c>
+      <c r="AF143">
+        <v>205</v>
+      </c>
+      <c r="AG143">
+        <v>179</v>
+      </c>
+      <c r="AH143">
+        <v>157</v>
+      </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A144">
         <v>0.8</v>
       </c>
@@ -16139,8 +19608,32 @@
       <c r="Z144">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA144">
+        <v>400</v>
+      </c>
+      <c r="AB144">
+        <v>350</v>
+      </c>
+      <c r="AC144">
+        <v>306</v>
+      </c>
+      <c r="AD144">
+        <v>267</v>
+      </c>
+      <c r="AE144">
+        <v>234</v>
+      </c>
+      <c r="AF144">
+        <v>205</v>
+      </c>
+      <c r="AG144">
+        <v>179</v>
+      </c>
+      <c r="AH144">
+        <v>157</v>
+      </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A145">
         <v>2.8</v>
       </c>
@@ -16220,8 +19713,32 @@
       <c r="Z145">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA145">
+        <v>400</v>
+      </c>
+      <c r="AB145">
+        <v>350</v>
+      </c>
+      <c r="AC145">
+        <v>306</v>
+      </c>
+      <c r="AD145">
+        <v>267</v>
+      </c>
+      <c r="AE145">
+        <v>234</v>
+      </c>
+      <c r="AF145">
+        <v>205</v>
+      </c>
+      <c r="AG145">
+        <v>179</v>
+      </c>
+      <c r="AH145">
+        <v>157</v>
+      </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A146">
         <v>3.6</v>
       </c>
@@ -16301,8 +19818,32 @@
       <c r="Z146">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA146">
+        <v>400</v>
+      </c>
+      <c r="AB146">
+        <v>350</v>
+      </c>
+      <c r="AC146">
+        <v>306</v>
+      </c>
+      <c r="AD146">
+        <v>267</v>
+      </c>
+      <c r="AE146">
+        <v>234</v>
+      </c>
+      <c r="AF146">
+        <v>205</v>
+      </c>
+      <c r="AG146">
+        <v>179</v>
+      </c>
+      <c r="AH146">
+        <v>157</v>
+      </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A147">
         <v>2.8</v>
       </c>
@@ -16382,8 +19923,32 @@
       <c r="Z147">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA147">
+        <v>400</v>
+      </c>
+      <c r="AB147">
+        <v>350</v>
+      </c>
+      <c r="AC147">
+        <v>306</v>
+      </c>
+      <c r="AD147">
+        <v>267</v>
+      </c>
+      <c r="AE147">
+        <v>234</v>
+      </c>
+      <c r="AF147">
+        <v>205</v>
+      </c>
+      <c r="AG147">
+        <v>179</v>
+      </c>
+      <c r="AH147">
+        <v>157</v>
+      </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A148">
         <v>0.5</v>
       </c>
@@ -16463,8 +20028,32 @@
       <c r="Z148">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA148">
+        <v>400</v>
+      </c>
+      <c r="AB148">
+        <v>350</v>
+      </c>
+      <c r="AC148">
+        <v>306</v>
+      </c>
+      <c r="AD148">
+        <v>267</v>
+      </c>
+      <c r="AE148">
+        <v>234</v>
+      </c>
+      <c r="AF148">
+        <v>205</v>
+      </c>
+      <c r="AG148">
+        <v>179</v>
+      </c>
+      <c r="AH148">
+        <v>157</v>
+      </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A149">
         <v>1.5</v>
       </c>
@@ -16544,8 +20133,32 @@
       <c r="Z149">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA149">
+        <v>400</v>
+      </c>
+      <c r="AB149">
+        <v>350</v>
+      </c>
+      <c r="AC149">
+        <v>306</v>
+      </c>
+      <c r="AD149">
+        <v>267</v>
+      </c>
+      <c r="AE149">
+        <v>234</v>
+      </c>
+      <c r="AF149">
+        <v>205</v>
+      </c>
+      <c r="AG149">
+        <v>179</v>
+      </c>
+      <c r="AH149">
+        <v>157</v>
+      </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A150">
         <v>0.5</v>
       </c>
@@ -16625,8 +20238,32 @@
       <c r="Z150">
         <v>0.81617647058823528</v>
       </c>
+      <c r="AA150">
+        <v>400</v>
+      </c>
+      <c r="AB150">
+        <v>350</v>
+      </c>
+      <c r="AC150">
+        <v>306</v>
+      </c>
+      <c r="AD150">
+        <v>267</v>
+      </c>
+      <c r="AE150">
+        <v>234</v>
+      </c>
+      <c r="AF150">
+        <v>205</v>
+      </c>
+      <c r="AG150">
+        <v>179</v>
+      </c>
+      <c r="AH150">
+        <v>157</v>
+      </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.75">
       <c r="A151">
         <v>1.5</v>
       </c>
@@ -16706,1382 +20343,29 @@
       <c r="Z151">
         <v>0.81851179673321228</v>
       </c>
-    </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A152">
-        <v>0.5</v>
-      </c>
-      <c r="B152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>227</v>
-      </c>
-      <c r="D152">
-        <v>150</v>
-      </c>
-      <c r="E152">
-        <v>57</v>
-      </c>
-      <c r="F152">
-        <v>218</v>
-      </c>
-      <c r="G152">
-        <v>40</v>
-      </c>
-      <c r="H152">
-        <v>190</v>
-      </c>
-      <c r="I152">
-        <v>87</v>
-      </c>
-      <c r="J152">
-        <v>116</v>
-      </c>
-      <c r="K152">
-        <v>1454026</v>
-      </c>
-      <c r="L152">
-        <v>6648894</v>
-      </c>
-      <c r="M152">
-        <v>4085448</v>
-      </c>
-      <c r="N152">
-        <v>1754245</v>
-      </c>
-      <c r="O152">
-        <v>4331710</v>
-      </c>
-      <c r="P152">
-        <v>5709</v>
-      </c>
-      <c r="Q152">
-        <v>1612</v>
-      </c>
-      <c r="R152">
-        <v>2031</v>
-      </c>
-      <c r="S152">
-        <v>0.5</v>
-      </c>
-      <c r="T152">
-        <v>0.5</v>
-      </c>
-      <c r="U152">
-        <v>0.5</v>
-      </c>
-      <c r="V152">
-        <v>0.5</v>
-      </c>
-      <c r="W152">
-        <v>0.5</v>
-      </c>
-      <c r="X152">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="Y152">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z152">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A153">
-        <v>0.5</v>
-      </c>
-      <c r="B153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>344</v>
-      </c>
-      <c r="D153">
-        <v>31</v>
-      </c>
-      <c r="E153">
-        <v>37</v>
-      </c>
-      <c r="F153">
-        <v>166</v>
-      </c>
-      <c r="G153">
-        <v>232</v>
-      </c>
-      <c r="H153">
-        <v>199</v>
-      </c>
-      <c r="I153">
-        <v>75</v>
-      </c>
-      <c r="J153">
-        <v>156</v>
-      </c>
-      <c r="K153">
-        <v>2410252</v>
-      </c>
-      <c r="L153">
-        <v>2316255</v>
-      </c>
-      <c r="M153">
-        <v>2240631</v>
-      </c>
-      <c r="N153">
-        <v>2223278</v>
-      </c>
-      <c r="O153">
-        <v>1763488</v>
-      </c>
-      <c r="P153">
-        <v>5399</v>
-      </c>
-      <c r="Q153">
-        <v>1341</v>
-      </c>
-      <c r="R153">
-        <v>5444</v>
-      </c>
-      <c r="S153">
-        <v>0.5</v>
-      </c>
-      <c r="T153">
-        <v>0.5</v>
-      </c>
-      <c r="U153">
-        <v>0.5</v>
-      </c>
-      <c r="V153">
-        <v>0.5</v>
-      </c>
-      <c r="W153">
-        <v>0.5</v>
-      </c>
-      <c r="X153">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y153">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z153">
-        <v>0.81851179673321228</v>
-      </c>
-    </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A154">
-        <v>1.5</v>
-      </c>
-      <c r="B154">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C154">
+      <c r="AA151">
+        <v>400</v>
+      </c>
+      <c r="AB151">
+        <v>350</v>
+      </c>
+      <c r="AC151">
         <v>306</v>
       </c>
-      <c r="D154">
-        <v>174</v>
-      </c>
-      <c r="E154">
-        <v>120</v>
-      </c>
-      <c r="F154">
-        <v>40</v>
-      </c>
-      <c r="G154">
-        <v>170</v>
-      </c>
-      <c r="H154">
-        <v>166</v>
-      </c>
-      <c r="I154">
-        <v>16</v>
-      </c>
-      <c r="J154">
-        <v>46</v>
-      </c>
-      <c r="K154">
-        <v>1144324</v>
-      </c>
-      <c r="L154">
-        <v>891985</v>
-      </c>
-      <c r="M154">
-        <v>639237</v>
-      </c>
-      <c r="N154">
-        <v>753996</v>
-      </c>
-      <c r="O154">
-        <v>5574</v>
-      </c>
-      <c r="P154">
-        <v>1800</v>
-      </c>
-      <c r="Q154">
-        <v>943</v>
-      </c>
-      <c r="R154">
-        <v>1278</v>
-      </c>
-      <c r="S154">
-        <v>0.5</v>
-      </c>
-      <c r="T154">
-        <v>0.5</v>
-      </c>
-      <c r="U154">
-        <v>0.5</v>
-      </c>
-      <c r="V154">
-        <v>0.5</v>
-      </c>
-      <c r="W154">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="X154">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y154">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z154">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A155">
-        <v>1.7</v>
-      </c>
-      <c r="B155">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>289</v>
-      </c>
-      <c r="D155">
-        <v>330</v>
-      </c>
-      <c r="E155">
-        <v>27</v>
-      </c>
-      <c r="F155">
-        <v>220</v>
-      </c>
-      <c r="G155">
-        <v>52</v>
-      </c>
-      <c r="H155">
-        <v>199</v>
-      </c>
-      <c r="I155">
-        <v>20</v>
-      </c>
-      <c r="J155">
-        <v>126</v>
-      </c>
-      <c r="K155">
-        <v>26188</v>
-      </c>
-      <c r="L155">
-        <v>25224</v>
-      </c>
-      <c r="M155">
-        <v>17980</v>
-      </c>
-      <c r="N155">
-        <v>8706</v>
-      </c>
-      <c r="O155">
-        <v>3396</v>
-      </c>
-      <c r="P155">
-        <v>5763</v>
-      </c>
-      <c r="Q155">
-        <v>1056</v>
-      </c>
-      <c r="R155">
-        <v>2097</v>
-      </c>
-      <c r="S155">
-        <v>0.5</v>
-      </c>
-      <c r="T155">
-        <v>0.5</v>
-      </c>
-      <c r="U155">
-        <v>0.5</v>
-      </c>
-      <c r="V155">
-        <v>0.69040247678018574</v>
-      </c>
-      <c r="W155">
-        <v>0.80276134122287968</v>
-      </c>
-      <c r="X155">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y155">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z155">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A156">
-        <v>1.5</v>
-      </c>
-      <c r="B156">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>304</v>
-      </c>
-      <c r="D156">
-        <v>186</v>
-      </c>
-      <c r="E156">
-        <v>78</v>
-      </c>
-      <c r="F156">
-        <v>173</v>
-      </c>
-      <c r="G156">
-        <v>199</v>
-      </c>
-      <c r="H156">
-        <v>17</v>
-      </c>
-      <c r="I156">
+      <c r="AD151">
+        <v>267</v>
+      </c>
+      <c r="AE151">
+        <v>234</v>
+      </c>
+      <c r="AF151">
+        <v>205</v>
+      </c>
+      <c r="AG151">
         <v>179</v>
       </c>
-      <c r="J156">
-        <v>53</v>
-      </c>
-      <c r="K156">
-        <v>2625499</v>
-      </c>
-      <c r="L156">
-        <v>2649855</v>
-      </c>
-      <c r="M156">
-        <v>2495751</v>
-      </c>
-      <c r="N156">
-        <v>2516363</v>
-      </c>
-      <c r="O156">
-        <v>5981</v>
-      </c>
-      <c r="P156">
-        <v>1112</v>
-      </c>
-      <c r="Q156">
-        <v>5629</v>
-      </c>
-      <c r="R156">
-        <v>1163</v>
-      </c>
-      <c r="S156">
-        <v>0.5</v>
-      </c>
-      <c r="T156">
-        <v>0.5</v>
-      </c>
-      <c r="U156">
-        <v>0.5</v>
-      </c>
-      <c r="V156">
-        <v>0.5</v>
-      </c>
-      <c r="W156">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="X156">
-        <v>0.81851179673321228</v>
-      </c>
-      <c r="Y156">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z156">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A157">
-        <v>1.5</v>
-      </c>
-      <c r="B157">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>48</v>
-      </c>
-      <c r="D157">
-        <v>265</v>
-      </c>
-      <c r="E157">
-        <v>38</v>
-      </c>
-      <c r="F157">
-        <v>133</v>
-      </c>
-      <c r="G157">
-        <v>165</v>
-      </c>
-      <c r="H157">
-        <v>165</v>
-      </c>
-      <c r="I157">
-        <v>172</v>
-      </c>
-      <c r="J157">
-        <v>4</v>
-      </c>
-      <c r="K157">
-        <v>44351</v>
-      </c>
-      <c r="L157">
-        <v>42463</v>
-      </c>
-      <c r="M157">
-        <v>39646</v>
-      </c>
-      <c r="N157">
-        <v>32911</v>
-      </c>
-      <c r="O157">
-        <v>4837</v>
-      </c>
-      <c r="P157">
-        <v>2068</v>
-      </c>
-      <c r="Q157">
-        <v>2984</v>
-      </c>
-      <c r="R157">
-        <v>896</v>
-      </c>
-      <c r="S157">
-        <v>0.5</v>
-      </c>
-      <c r="T157">
-        <v>0.5</v>
-      </c>
-      <c r="U157">
-        <v>0.5</v>
-      </c>
-      <c r="V157">
-        <v>0.5</v>
-      </c>
-      <c r="W157">
-        <v>0.80276134122287968</v>
-      </c>
-      <c r="X157">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y157">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z157">
-        <v>0.81851179673321228</v>
-      </c>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A158">
-        <v>2.5</v>
-      </c>
-      <c r="B158">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>344</v>
-      </c>
-      <c r="D158">
-        <v>313</v>
-      </c>
-      <c r="E158">
-        <v>230</v>
-      </c>
-      <c r="F158">
-        <v>100</v>
-      </c>
-      <c r="G158">
-        <v>68</v>
-      </c>
-      <c r="H158">
-        <v>69</v>
-      </c>
-      <c r="I158">
-        <v>80</v>
-      </c>
-      <c r="J158">
-        <v>86</v>
-      </c>
-      <c r="K158">
-        <v>26824</v>
-      </c>
-      <c r="L158">
-        <v>29773</v>
-      </c>
-      <c r="M158">
-        <v>26416</v>
-      </c>
-      <c r="N158">
-        <v>4293</v>
-      </c>
-      <c r="O158">
-        <v>2219</v>
-      </c>
-      <c r="P158">
-        <v>1705</v>
-      </c>
-      <c r="Q158">
-        <v>1557</v>
-      </c>
-      <c r="R158">
-        <v>1753</v>
-      </c>
-      <c r="S158">
-        <v>0.5</v>
-      </c>
-      <c r="T158">
-        <v>0.5</v>
-      </c>
-      <c r="U158">
-        <v>0.5</v>
-      </c>
-      <c r="V158">
-        <v>0.80039920159680633</v>
-      </c>
-      <c r="W158">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="X158">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="Y158">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z158">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A159">
-        <v>1.5</v>
-      </c>
-      <c r="B159">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>243</v>
-      </c>
-      <c r="D159">
-        <v>62</v>
-      </c>
-      <c r="E159">
-        <v>20</v>
-      </c>
-      <c r="F159">
-        <v>51</v>
-      </c>
-      <c r="G159">
-        <v>100</v>
-      </c>
-      <c r="H159">
-        <v>156</v>
-      </c>
-      <c r="I159">
-        <v>105</v>
-      </c>
-      <c r="J159">
-        <v>46</v>
-      </c>
-      <c r="K159">
-        <v>33444</v>
-      </c>
-      <c r="L159">
-        <v>34259</v>
-      </c>
-      <c r="M159">
-        <v>36991</v>
-      </c>
-      <c r="N159">
-        <v>28299</v>
-      </c>
-      <c r="O159">
-        <v>4125</v>
-      </c>
-      <c r="P159">
-        <v>1997</v>
-      </c>
-      <c r="Q159">
-        <v>1751</v>
-      </c>
-      <c r="R159">
-        <v>1310</v>
-      </c>
-      <c r="S159">
-        <v>0.5</v>
-      </c>
-      <c r="T159">
-        <v>0.5</v>
-      </c>
-      <c r="U159">
-        <v>0.5</v>
-      </c>
-      <c r="V159">
-        <v>0.5</v>
-      </c>
-      <c r="W159">
-        <v>0.80039920159680633</v>
-      </c>
-      <c r="X159">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y159">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z159">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A160">
-        <v>1.5</v>
-      </c>
-      <c r="B160">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>49</v>
-      </c>
-      <c r="D160">
-        <v>159</v>
-      </c>
-      <c r="E160">
-        <v>145</v>
-      </c>
-      <c r="F160">
-        <v>231</v>
-      </c>
-      <c r="G160">
-        <v>224</v>
-      </c>
-      <c r="H160">
-        <v>52</v>
-      </c>
-      <c r="I160">
-        <v>88</v>
-      </c>
-      <c r="J160">
-        <v>139</v>
-      </c>
-      <c r="K160">
-        <v>162729</v>
-      </c>
-      <c r="L160">
-        <v>213459</v>
-      </c>
-      <c r="M160">
-        <v>211480</v>
-      </c>
-      <c r="N160">
-        <v>160387</v>
-      </c>
-      <c r="O160">
-        <v>4277</v>
-      </c>
-      <c r="P160">
-        <v>1699</v>
-      </c>
-      <c r="Q160">
-        <v>1617</v>
-      </c>
-      <c r="R160">
-        <v>2307</v>
-      </c>
-      <c r="S160">
-        <v>0.5</v>
-      </c>
-      <c r="T160">
-        <v>0.5</v>
-      </c>
-      <c r="U160">
-        <v>0.5</v>
-      </c>
-      <c r="V160">
-        <v>0.5</v>
-      </c>
-      <c r="W160">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="X160">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y160">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z160">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A161">
-        <v>0.5</v>
-      </c>
-      <c r="B161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>390</v>
-      </c>
-      <c r="D161">
-        <v>222</v>
-      </c>
-      <c r="E161">
-        <v>47</v>
-      </c>
-      <c r="F161">
-        <v>81</v>
-      </c>
-      <c r="G161">
-        <v>83</v>
-      </c>
-      <c r="H161">
-        <v>203</v>
-      </c>
-      <c r="I161">
-        <v>141</v>
-      </c>
-      <c r="J161">
-        <v>132</v>
-      </c>
-      <c r="K161">
-        <v>348833</v>
-      </c>
-      <c r="L161">
-        <v>441435</v>
-      </c>
-      <c r="M161">
-        <v>464552</v>
-      </c>
-      <c r="N161">
-        <v>459658</v>
-      </c>
-      <c r="O161">
-        <v>440154</v>
-      </c>
-      <c r="P161">
-        <v>5468</v>
-      </c>
-      <c r="Q161">
-        <v>2061</v>
-      </c>
-      <c r="R161">
-        <v>2137</v>
-      </c>
-      <c r="S161">
-        <v>0.5</v>
-      </c>
-      <c r="T161">
-        <v>0.5</v>
-      </c>
-      <c r="U161">
-        <v>0.5</v>
-      </c>
-      <c r="V161">
-        <v>0.5</v>
-      </c>
-      <c r="W161">
-        <v>0.5</v>
-      </c>
-      <c r="X161">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y161">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z161">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A162">
-        <v>0.5</v>
-      </c>
-      <c r="B162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>113</v>
-      </c>
-      <c r="D162">
-        <v>131</v>
-      </c>
-      <c r="E162">
-        <v>181</v>
-      </c>
-      <c r="F162">
-        <v>31</v>
-      </c>
-      <c r="G162">
-        <v>227</v>
-      </c>
-      <c r="H162">
-        <v>113</v>
-      </c>
-      <c r="I162">
-        <v>172</v>
-      </c>
-      <c r="J162">
-        <v>154</v>
-      </c>
-      <c r="K162">
-        <v>1602810</v>
-      </c>
-      <c r="L162">
-        <v>1212967</v>
-      </c>
-      <c r="M162">
-        <v>1060566</v>
-      </c>
-      <c r="N162">
-        <v>845724</v>
-      </c>
-      <c r="O162">
-        <v>1094929</v>
-      </c>
-      <c r="P162">
-        <v>5326</v>
-      </c>
-      <c r="Q162">
-        <v>4266</v>
-      </c>
-      <c r="R162">
-        <v>5568</v>
-      </c>
-      <c r="S162">
-        <v>0.5</v>
-      </c>
-      <c r="T162">
-        <v>0.5</v>
-      </c>
-      <c r="U162">
-        <v>0.5</v>
-      </c>
-      <c r="V162">
-        <v>0.5</v>
-      </c>
-      <c r="W162">
-        <v>0.5</v>
-      </c>
-      <c r="X162">
-        <v>0.80544747081712065</v>
-      </c>
-      <c r="Y162">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="Z162">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A163">
-        <v>1.5</v>
-      </c>
-      <c r="B163">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>348</v>
-      </c>
-      <c r="D163">
-        <v>21</v>
-      </c>
-      <c r="E163">
-        <v>138</v>
-      </c>
-      <c r="F163">
-        <v>118</v>
-      </c>
-      <c r="G163">
-        <v>232</v>
-      </c>
-      <c r="H163">
-        <v>79</v>
-      </c>
-      <c r="I163">
-        <v>166</v>
-      </c>
-      <c r="J163">
-        <v>49</v>
-      </c>
-      <c r="K163">
-        <v>39067</v>
-      </c>
-      <c r="L163">
-        <v>53274</v>
-      </c>
-      <c r="M163">
-        <v>41422</v>
-      </c>
-      <c r="N163">
-        <v>45056</v>
-      </c>
-      <c r="O163">
-        <v>3279</v>
-      </c>
-      <c r="P163">
-        <v>1782</v>
-      </c>
-      <c r="Q163">
-        <v>2237</v>
-      </c>
-      <c r="R163">
-        <v>1287</v>
-      </c>
-      <c r="S163">
-        <v>0.5</v>
-      </c>
-      <c r="T163">
-        <v>0.5</v>
-      </c>
-      <c r="U163">
-        <v>0.5</v>
-      </c>
-      <c r="V163">
-        <v>0.5</v>
-      </c>
-      <c r="W163">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="X163">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y163">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z163">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A164">
-        <v>0.5</v>
-      </c>
-      <c r="B164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>11</v>
-      </c>
-      <c r="D164">
-        <v>214</v>
-      </c>
-      <c r="E164">
-        <v>43</v>
-      </c>
-      <c r="F164">
-        <v>246</v>
-      </c>
-      <c r="G164">
-        <v>34</v>
-      </c>
-      <c r="H164">
-        <v>94</v>
-      </c>
-      <c r="I164">
-        <v>179</v>
-      </c>
-      <c r="J164">
-        <v>115</v>
-      </c>
-      <c r="K164">
-        <v>73213</v>
-      </c>
-      <c r="L164">
-        <v>69986</v>
-      </c>
-      <c r="M164">
-        <v>63087</v>
-      </c>
-      <c r="N164">
-        <v>67560</v>
-      </c>
-      <c r="O164">
-        <v>63980</v>
-      </c>
-      <c r="P164">
-        <v>4154</v>
-      </c>
-      <c r="Q164">
-        <v>5583</v>
-      </c>
-      <c r="R164">
-        <v>1996</v>
-      </c>
-      <c r="S164">
-        <v>0.5</v>
-      </c>
-      <c r="T164">
-        <v>0.5</v>
-      </c>
-      <c r="U164">
-        <v>0.5</v>
-      </c>
-      <c r="V164">
-        <v>0.5</v>
-      </c>
-      <c r="W164">
-        <v>0.5</v>
-      </c>
-      <c r="X164">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="Y164">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z164">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A165">
-        <v>3.6</v>
-      </c>
-      <c r="B165">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>102</v>
-      </c>
-      <c r="D165">
-        <v>185</v>
-      </c>
-      <c r="E165">
-        <v>277</v>
-      </c>
-      <c r="F165">
-        <v>103</v>
-      </c>
-      <c r="G165">
-        <v>58</v>
-      </c>
-      <c r="H165">
-        <v>50</v>
-      </c>
-      <c r="I165">
-        <v>28</v>
-      </c>
-      <c r="J165">
-        <v>35</v>
-      </c>
-      <c r="K165">
-        <v>18406</v>
-      </c>
-      <c r="L165">
-        <v>16301</v>
-      </c>
-      <c r="M165">
-        <v>3461</v>
-      </c>
-      <c r="N165">
-        <v>1862</v>
-      </c>
-      <c r="O165">
-        <v>1402</v>
-      </c>
-      <c r="P165">
-        <v>1237</v>
-      </c>
-      <c r="Q165">
-        <v>1041</v>
-      </c>
-      <c r="R165">
-        <v>1159</v>
-      </c>
-      <c r="S165">
-        <v>0.5</v>
-      </c>
-      <c r="T165">
-        <v>0.63235294117647067</v>
-      </c>
-      <c r="U165">
-        <v>0.80430528375733856</v>
-      </c>
-      <c r="V165">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="W165">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="X165">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y165">
-        <v>0.81851179673321228</v>
-      </c>
-      <c r="Z165">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A166">
-        <v>0.5</v>
-      </c>
-      <c r="B166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>87</v>
-      </c>
-      <c r="D166">
-        <v>349</v>
-      </c>
-      <c r="E166">
-        <v>41</v>
-      </c>
-      <c r="F166">
-        <v>95</v>
-      </c>
-      <c r="G166">
-        <v>183</v>
-      </c>
-      <c r="H166">
-        <v>187</v>
-      </c>
-      <c r="I166">
-        <v>133</v>
-      </c>
-      <c r="J166">
-        <v>151</v>
-      </c>
-      <c r="K166">
-        <v>3016112</v>
-      </c>
-      <c r="L166">
-        <v>2941854</v>
-      </c>
-      <c r="M166">
-        <v>2853742</v>
-      </c>
-      <c r="N166">
-        <v>2004239</v>
-      </c>
-      <c r="O166">
-        <v>1824972</v>
-      </c>
-      <c r="P166">
-        <v>5755</v>
-      </c>
-      <c r="Q166">
-        <v>1902</v>
-      </c>
-      <c r="R166">
-        <v>5642</v>
-      </c>
-      <c r="S166">
-        <v>0.5</v>
-      </c>
-      <c r="T166">
-        <v>0.5</v>
-      </c>
-      <c r="U166">
-        <v>0.5</v>
-      </c>
-      <c r="V166">
-        <v>0.5</v>
-      </c>
-      <c r="W166">
-        <v>0.5</v>
-      </c>
-      <c r="X166">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y166">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z166">
-        <v>0.81617647058823528</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A167">
-        <v>0.5</v>
-      </c>
-      <c r="B167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>221</v>
-      </c>
-      <c r="D167">
-        <v>316</v>
-      </c>
-      <c r="E167">
-        <v>236</v>
-      </c>
-      <c r="F167">
-        <v>213</v>
-      </c>
-      <c r="G167">
-        <v>63</v>
-      </c>
-      <c r="H167">
-        <v>107</v>
-      </c>
-      <c r="I167">
-        <v>142</v>
-      </c>
-      <c r="J167">
-        <v>137</v>
-      </c>
-      <c r="K167">
-        <v>244766</v>
-      </c>
-      <c r="L167">
-        <v>516040</v>
-      </c>
-      <c r="M167">
-        <v>404061</v>
-      </c>
-      <c r="N167">
-        <v>483450</v>
-      </c>
-      <c r="O167">
-        <v>404964</v>
-      </c>
-      <c r="P167">
-        <v>5608</v>
-      </c>
-      <c r="Q167">
-        <v>2089</v>
-      </c>
-      <c r="R167">
-        <v>2419</v>
-      </c>
-      <c r="S167">
-        <v>0.5</v>
-      </c>
-      <c r="T167">
-        <v>0.5</v>
-      </c>
-      <c r="U167">
-        <v>0.5</v>
-      </c>
-      <c r="V167">
-        <v>0.5</v>
-      </c>
-      <c r="W167">
-        <v>0.5</v>
-      </c>
-      <c r="X167">
-        <v>0.81378026070763498</v>
-      </c>
-      <c r="Y167">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z167">
-        <v>0.81378026070763498</v>
-      </c>
-    </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A168">
-        <v>0.6</v>
-      </c>
-      <c r="B168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>367</v>
-      </c>
-      <c r="D168">
-        <v>121</v>
-      </c>
-      <c r="E168">
-        <v>12</v>
-      </c>
-      <c r="F168">
-        <v>255</v>
-      </c>
-      <c r="G168">
-        <v>20</v>
-      </c>
-      <c r="H168">
-        <v>199</v>
-      </c>
-      <c r="I168">
-        <v>103</v>
-      </c>
-      <c r="J168">
-        <v>79</v>
-      </c>
-      <c r="K168">
-        <v>17365</v>
-      </c>
-      <c r="L168">
-        <v>14752</v>
-      </c>
-      <c r="M168">
-        <v>12893</v>
-      </c>
-      <c r="N168">
-        <v>11534</v>
-      </c>
-      <c r="O168">
-        <v>10374</v>
-      </c>
-      <c r="P168">
-        <v>5506</v>
-      </c>
-      <c r="Q168">
-        <v>1667</v>
-      </c>
-      <c r="R168">
-        <v>1559</v>
-      </c>
-      <c r="S168">
-        <v>0.5145631067961165</v>
-      </c>
-      <c r="T168">
-        <v>0.53703703703703698</v>
-      </c>
-      <c r="U168">
-        <v>0.5575221238938054</v>
-      </c>
-      <c r="V168">
-        <v>0.63503649635036497</v>
-      </c>
-      <c r="W168">
-        <v>0.58847736625514413</v>
-      </c>
-      <c r="X168">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Y168">
-        <v>0.81617647058823528</v>
-      </c>
-      <c r="Z168">
-        <v>0.81617647058823528</v>
+      <c r="AH151">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
